--- a/data/06_colima/test4.xlsx
+++ b/data/06_colima/test4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,40 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>POB_TOTAL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>$CO$</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>$HCHO$</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>$NO_2$</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>$O_3$</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>$SO_2$</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GM_2020</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>densidad</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>metrica</t>
         </is>
@@ -493,206 +498,793 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>060010001026A</t>
+          <t>0601000010288</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armería</t>
+          <t>Colima-VA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ciudad de Armería</t>
+          <t>Ciudad de Villa de Álvarez</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.415568077078646</v>
+        <v>2557</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>5.586242299794661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0600100010255</t>
+          <t>0600200010483</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armería</t>
+          <t>Colima-VA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ciudad de Armería</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>742</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.015</v>
-      </c>
       <c r="K3" t="n">
-        <v>5.348403514778044</v>
+        <v>0.162</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.193890449228859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0600100070240</t>
+          <t>0600200010464</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Armería</t>
+          <t>Colima-VA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cofradía de Juárez</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6870000000000001</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>0.701</v>
+        <v>0.191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.718</v>
+        <v>0.222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.705</v>
+        <v>0.247</v>
       </c>
       <c r="H4" t="n">
-        <v>0.675</v>
+        <v>0.192</v>
       </c>
       <c r="I4" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.242064579305464</v>
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.624163227108493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0600100350325</t>
+          <t>0601000010305</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Armería</t>
+          <t>Colima-VA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rincón de López</t>
+          <t>Ciudad de Villa de Álvarez</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.8516859442936</v>
+        <v>1115</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3.310861679604751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0600100010166</t>
+          <t>0600200011320</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Armería</t>
+          <t>Colima-VA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ciudad de Armería</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>1520</v>
       </c>
       <c r="E6" t="n">
-        <v>0.514</v>
+        <v>0.659</v>
       </c>
       <c r="F6" t="n">
-        <v>0.514</v>
+        <v>0.649</v>
       </c>
       <c r="G6" t="n">
-        <v>0.508</v>
+        <v>0.654</v>
       </c>
       <c r="H6" t="n">
-        <v>0.526</v>
+        <v>0.663</v>
       </c>
       <c r="I6" t="n">
-        <v>0.667</v>
+        <v>0.63</v>
       </c>
       <c r="J6" t="n">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.399249914323824</v>
+        <v>0.055</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.149051119494541</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0600500010235</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1746</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>6.060215053763441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0600500180038</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Quesería</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3341</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>6.036418848464301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0600500010112</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2186</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>5.06172977903397</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0600500180080</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Quesería</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2639</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>4.503368096581746</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0600500010108</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cuauhtémoc</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>4.273755694406958</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0600700010831</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>149</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>5.731099502487562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0600700010460</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>5.301672730330149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0600700010672</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>157</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>4.597079130540562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0600700010530</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>87</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>4.458780753562017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0600700010511</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>810</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>4.249138638896711</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0600800010097</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>857</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0600800010114</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>810</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>4.120006588192525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0600800010078</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1412</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.94701927587937</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0600800010133</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1586</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.852294397238218</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0600800010129</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Minatitlán</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1353</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.9032258064516128</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0600900010357</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4366</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>5.106837606837606</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0600900010361</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3043</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>3.577913695983445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0600900010323</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>616</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2.402849031215974</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0600900010501</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3072</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>2.309607890642466</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>060090001086A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tecomán</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>217</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2.290026358148137</v>
       </c>
     </row>
   </sheetData>

--- a/data/06_colima/test4.xlsx
+++ b/data/06_colima/test4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -514,13 +514,27 @@
       <c r="D2" t="n">
         <v>2557</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.08624229979466121</v>
+      </c>
       <c r="L2" t="n">
         <v>5.586242299794661</v>
       </c>
@@ -545,25 +559,25 @@
         <v>742</v>
       </c>
       <c r="E3" t="n">
-        <v>0.472</v>
+        <v>0.9778225806451613</v>
       </c>
       <c r="F3" t="n">
-        <v>0.479</v>
+        <v>0.9727547931382442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.475</v>
+        <v>0.885</v>
       </c>
       <c r="H3" t="n">
-        <v>0.477</v>
+        <v>0.9657258064516129</v>
       </c>
       <c r="I3" t="n">
-        <v>0.513</v>
+        <v>0.87</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.162</v>
+        <v>0.02258726899383984</v>
       </c>
       <c r="L3" t="n">
         <v>5.193890449228859</v>
@@ -589,25 +603,25 @@
         <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191</v>
+        <v>0.6391129032258065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.222</v>
+        <v>0.6579212916246217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.247</v>
+        <v>0.577</v>
       </c>
       <c r="H4" t="n">
-        <v>0.192</v>
+        <v>0.6411290322580645</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>3.624163227108493</v>
@@ -632,13 +646,27 @@
       <c r="D5" t="n">
         <v>1115</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.6592741935483871</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6488395560040363</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6633064516129032</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05544147843942505</v>
+      </c>
       <c r="L5" t="n">
         <v>3.310861679604751</v>
       </c>
@@ -663,25 +691,25 @@
         <v>1520</v>
       </c>
       <c r="E6" t="n">
-        <v>0.659</v>
+        <v>0.5977822580645161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.649</v>
+        <v>0.5943491422805247</v>
       </c>
       <c r="G6" t="n">
-        <v>0.654</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.663</v>
+        <v>0.5846774193548386</v>
       </c>
       <c r="I6" t="n">
-        <v>0.63</v>
+        <v>0.478</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="n">
-        <v>0.055</v>
+        <v>0.08624229979466121</v>
       </c>
       <c r="L6" t="n">
         <v>3.149051119494541</v>
@@ -706,13 +734,27 @@
       <c r="D7" t="n">
         <v>1746</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3935483870967743</v>
+      </c>
       <c r="L7" t="n">
         <v>6.060215053763441</v>
       </c>
@@ -736,13 +778,27 @@
       <c r="D8" t="n">
         <v>3341</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.8787878787878786</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7427536231884058</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8650519031141867</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8896103896103895</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9935483870967743</v>
+      </c>
       <c r="L8" t="n">
         <v>6.036418848464301</v>
       </c>
@@ -766,13 +822,27 @@
       <c r="D9" t="n">
         <v>2186</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.8249158249158247</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8079710144927537</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7993079584775086</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8279220779220778</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6516129032258065</v>
+      </c>
       <c r="L9" t="n">
         <v>5.06172977903397</v>
       </c>
@@ -796,13 +866,27 @@
       <c r="D10" t="n">
         <v>2639</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.6464646464646463</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5471014492753623</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6020761245674739</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6558441558441558</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9935483870967743</v>
+      </c>
       <c r="L10" t="n">
         <v>4.503368096581746</v>
       </c>
@@ -826,13 +910,27 @@
       <c r="D11" t="n">
         <v>1905</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.6835016835016834</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.677536231884058</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6678200692041522</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6883116883116883</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5458333333333333</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6774193548387097</v>
+      </c>
       <c r="L11" t="n">
         <v>4.273755694406958</v>
       </c>
@@ -856,13 +954,27 @@
       <c r="D12" t="n">
         <v>149</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7300995024875621</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.001</v>
+      </c>
       <c r="L12" t="n">
         <v>5.731099502487562</v>
       </c>
@@ -886,13 +998,27 @@
       <c r="D13" t="n">
         <v>2134</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.8381201044386424</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8381240544629349</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.054</v>
+      </c>
       <c r="L13" t="n">
         <v>5.301672730330149</v>
       </c>
@@ -916,13 +1042,27 @@
       <c r="D14" t="n">
         <v>157</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.7558746736292428</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8245083207261725</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.968503937007874</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8210678210678211</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8917910447761193</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.002</v>
+      </c>
       <c r="L14" t="n">
         <v>4.597079130540562</v>
       </c>
@@ -946,13 +1086,27 @@
       <c r="D15" t="n">
         <v>87</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0.8159268929503917</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9319213313161875</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9086614173228345</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8831168831168832</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9191542288557213</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>4.458780753562017</v>
       </c>
@@ -976,13 +1130,27 @@
       <c r="D16" t="n">
         <v>810</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.7154046997389035</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7428139183055975</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7275590551181103</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7518037518037519</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6218905472636815</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.023</v>
+      </c>
       <c r="L16" t="n">
         <v>4.249138638896711</v>
       </c>
@@ -1006,13 +1174,27 @@
       <c r="D17" t="n">
         <v>857</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
@@ -1036,13 +1218,27 @@
       <c r="D18" t="n">
         <v>810</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7532467532467535</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6634615384615385</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05161290322580642</v>
+      </c>
       <c r="L18" t="n">
         <v>4.120006588192525</v>
       </c>
@@ -1066,13 +1262,27 @@
       <c r="D19" t="n">
         <v>1412</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0.3595505617977528</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3333333333333331</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2467532467532467</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3557692307692308</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6516129032258065</v>
+      </c>
       <c r="L19" t="n">
         <v>1.94701927587937</v>
       </c>
@@ -1096,13 +1306,27 @@
       <c r="D20" t="n">
         <v>1586</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0.1910112359550562</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2467532467532467</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1923076923076925</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
       <c r="L20" t="n">
         <v>1.852294397238218</v>
       </c>
@@ -1126,13 +1350,27 @@
       <c r="D21" t="n">
         <v>1353</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9032258064516128</v>
+      </c>
       <c r="L21" t="n">
         <v>0.9032258064516128</v>
       </c>
@@ -1156,13 +1394,27 @@
       <c r="D22" t="n">
         <v>4366</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1068376068376069</v>
+      </c>
       <c r="L22" t="n">
         <v>5.106837606837606</v>
       </c>
@@ -1186,13 +1438,27 @@
       <c r="D23" t="n">
         <v>3043</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.4720758693361433</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4786845310596834</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4746423927178153</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4771460423634337</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5129716981132075</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1623931623931624</v>
+      </c>
       <c r="L23" t="n">
         <v>3.577913695983445</v>
       </c>
@@ -1216,13 +1482,27 @@
       <c r="D24" t="n">
         <v>616</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.3414120126448894</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3593179049939099</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3498049414824447</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3422519509476031</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3077830188679246</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.03561253561253562</v>
+      </c>
       <c r="L24" t="n">
         <v>2.402849031215974</v>
       </c>
@@ -1246,13 +1526,27 @@
       <c r="D25" t="n">
         <v>3072</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.267650158061117</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2716199756394641</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2756827048114434</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2686733556298774</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2558962264150944</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3034188034188035</v>
+      </c>
       <c r="L25" t="n">
         <v>2.309607890642466</v>
       </c>
@@ -1276,13 +1570,27 @@
       <c r="D26" t="n">
         <v>217</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.4394099051633298</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4677222898903776</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4499349804941482</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4459308807134894</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4870283018867925</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
       <c r="L26" t="n">
         <v>2.290026358148137</v>
       </c>

--- a/data/06_colima/test4.xlsx
+++ b/data/06_colima/test4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>metrica</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>geometry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,6 +543,11 @@
       <c r="L2" t="n">
         <v>5.586242299794661</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>POLYGON ((2318933.5128000006 810638.2831999995, 2319025.867200002 810599.7010999992, 2319019.3324000016 810586.6145000011, 2319011.4855000004 810570.9006999992, 2319009.0939000025 810566.1107000001, 2319006.7052000016 810561.3269999996, 2319003.1921999976 810554.2859999985, 2318998.8971000016 810544.9455000013, 2318995.1938999966 810536.8922999986, 2318989.5529000014 810524.6328999996, 2318982.9280999973 810510.2314999998, 2318967.659699999 810477.0388999991, 2318966.324500002 810474.4752999991, 2318964.662299998 810471.2842000015, 2318961.7541000023 810465.699000001, 2318954.0029999986 810450.8187999986, 2318949.545000002 810442.2606999986, 2318945.704099998 810434.8870999999, 2318941.966300003 810427.1508999988, 2318930.7520999983 810403.9409000017, 2318908.3522000015 810357.5780999996, 2318905.3752999976 810352.9985000007, 2318901.6379000023 810347.2492999993, 2318896.1401000023 810338.7760999985, 2319004.943099998 810281.745099999, 2319021.867700003 810273.0601000004, 2319103.8891000003 810230.9706999995, 2319152.559299998 810205.9677000009, 2319152.6699 810205.9019000009, 2319152.9213000014 810205.7523000017, 2319153.708300002 810205.3495000005, 2319154.0320999995 810205.183699999, 2319202.720700003 810180.2160999998, 2319202.8835000023 810180.1180999987, 2319203.086099997 810179.996199999, 2319359.3390000015 810088.0302999988, 2319359.512699999 810087.9243000001, 2319359.700099997 810087.809700001, 2319384.4170999974 810075.4171999991, 2319388.548100002 810073.3460000008, 2319406.4025000036 810063.5493000001, 2319477.8166999966 810024.3641000018, 2319612.368900001 809952.8095000014, 2319812.912900001 809845.7507000007, 2319844.2468999997 809829.0232999995, 2319902.373499997 809799.6327, 2320140.208300002 809679.3768999986, 2320140.2342000008 809679.3636999987, 2320140.9131999984 809673.4677000009, 2320141.6730000004 809672.7897000015, 2320149.772 809665.564100001, 2320151.1158000007 809660.6075000018, 2320155.0636000037 809646.0454000011, 2320155.067400001 809646.0313000008, 2320155.0636000037 809645.8335999995, 2320154.6912999973 809626.6083000004, 2320152.0023000017 809622.1127000004, 2320144.6384999976 809609.8018999994, 2320131.709899999 809608.2115000002, 2320128.0574999973 809607.7622000016, 2320127.5771000013 809607.7030999996, 2320127.434600003 809607.7696999982, 2320121.6039000005 809610.493900001, 2320113.1164999977 809614.4593000002, 2320106.653499998 809617.0456999987, 2320083.359099999 809626.3680999987, 2320077.4739999995 809627.7261000015, 2320068.4239000008 809629.8150000013, 2320068.027400002 809629.9065000005, 2320067.8011000007 809629.8225000016, 2320053.5521000028 809624.5311000012, 2320041.0863000005 809619.9021000005, 2319946.486299999 809590.1601000018, 2319907.6212000027 809550.4321000017, 2319885.2290999964 809524.1490999982, 2319875.7370999977 809514.6306999996, 2319866.218500003 809505.0859000012, 2319841.6724999994 809481.0381000005, 2319835.8872999996 809475.3702000007, 2319824.079099998 809463.8031000011, 2319800.891099997 809438.3451000005, 2319800.2590999976 809430.8889000006, 2319797.738499999 809401.1614999995, 2319749.355300002 809336.2005000003, 2319747.8081 809334.1231000014, 2319747.223099999 809331.3717, 2319743.3505000025 809313.1570999995, 2319737.3630999997 809297.0815000013, 2319720.908699997 809284.4466999993, 2319694.5744000003 809263.9063999988, 2319679.3518999964 809241.6528999992, 2319678.724200003 809240.7353000008, 2319672.4262000024 809208.4721000008, 2319666.7051 809195.5507000014, 2319661.4121999964 809183.5969000012, 2319661.407700002 809183.5866999999, 2319661.4121999964 809183.3852000013, 2319662.271899998 809144.8872000016, 2319662.275899999 809144.7080999985, 2319662.271899998 809144.6755000018, 2319659.715499997 809123.8398999982, 2319655.5371999964 809089.7862000018, 2319645.5003999993 809073.7877999991, 2319635.4641000032 809057.7901000008, 2319624.234700002 809048.6477999985, 2319597.580499999 809026.9483000003, 2319590.1479 809019.8055000007, 2319588.954499997 809018.6587000005, 2319582.7151999995 809012.6631000005, 2319570.9805999994 808994.7928999998, 2319570.891900003 808994.6576999985, 2319562.919500001 808967.876699999, 2319551.4290999994 808929.2780999988, 2319542.4327000007 808843.5056000017, 2319542.424999997 808843.4321999997, 2319542.4111 808843.3000999987, 2319542.424900003 808843.2204999998, 2319563.019100003 808724.802099999, 2319563.6696999967 808722.0934000015, 2319564.9494000003 808716.7657000013, 2319565.088100001 808716.1884000003, 2319565.1141000018 808716.0800999999, 2319565.088100001 808715.9767000005, 2319552.5041999966 808665.9510999992, 2319547.2567000017 808635.5804000013, 2319532.555200003 808550.4930999987, 2319516.6790999994 808492.6363000013, 2319512.709899999 808478.1721000001, 2319495.281499997 808431.0898999982, 2319488.8301 808413.6620999984, 2319487.861299999 808411.0443000011, 2319482.3369000033 808396.1182999983, 2319445.853699997 808304.6002999991, 2319383.9098000005 808155.7760999985, 2319379.877700001 808166.7201000005, 2319378.392099999 808170.7523000017, 2319376.9532999992 808174.6568999998, 2319338.0644999966 808204.2752999999, 2319207.1279999986 808303.9990000017, 2319193.114 808315.3350000009, 2319190.369900003 808317.5659000017, 2319186.8693000004 808320.4123000018, 2319180.3055000007 808325.7122999988, 2319157.015299998 808344.5368999988, 2319134.342299998 808362.8783, 2319091.3720000014 808397.6391000003, 2319037.830799997 808443.0709000006, 2319029.3935000002 808450.7509999983, 2319027.5973000005 808452.3861000016, 2318987.265299998 808492.0172999986, 2318952.6105000004 808548.3869000003, 2318941.6119000018 808595.3563000001, 2318935.770999998 808620.3011000007, 2318936.4420000017 808631.0775000006, 2318937.7634000033 808652.2950999998, 2318938.4782000035 808685.9173000008, 2318939.3768000007 808728.1691000015, 2318921.674800001 808784.685800001, 2318919.662799999 808791.7402000017, 2318919.0019000024 808794.0610999987, 2318917.715300001 808795.9631000012, 2318917.2145000026 808796.7036999986, 2318915.5331000015 808799.189100001, 2318906.8219000027 808812.0669, 2318897.9793 808825.1356999986, 2318897.0478999987 808826.5124999993, 2318882.0165000036 808842.259300001, 2318850.8260999992 808874.934799999, 2318837.4768999964 808885.5357000008, 2318832.9958999977 808889.0943000019, 2318811.4683 808905.9981000014, 2318778.1171000004 808932.185899999, 2318775.9469000027 808933.8891999982, 2318774.967100002 808934.6581000015, 2318774.5130999982 808935.0095000006, 2318773.107900001 808936.0971000008, 2318711.1668 808984.0269000009, 2318692.9197999984 808998.120000001, 2318659.4307999983 809025.7969000004, 2318655.378200002 809029.1799000017, 2318617.8071999997 809060.5458999984, 2318614.5715000033 809063.2481000014, 2318607.8561000004 809068.8564999998, 2318607.583499998 809069.0832999982, 2318607.216799997 809069.3887999989, 2318520.6028999984 809140.3189000003, 2318517.226300001 809143.2010999992, 2318516.9177 809143.4644999988, 2318513.091499999 809146.7311000004, 2318505.4965000004 809152.9732999988, 2318416.2314999998 809226.8348999992, 2318402.0841000006 809238.5410000011, 2318401.2656000033 809239.2177999988, 2318398.9521000013 809241.1312000006, 2318406.4452000037 809252.4541000016, 2318460.2611000016 809333.7758999988, 2318482.225100003 809366.6457000002, 2318502.1860999987 809396.5214999989, 2318505.4469000027 809401.4019000009, 2318531.7978999987 809440.8381999992, 2318547.3949000016 809464.7043000013, 2318559.9805999994 809484.6677000001, 2318565.5600999966 809493.5177000016, 2318571.4272999987 809503.4191000015, 2318579.015900001 809516.2250999995, 2318583.3703000024 809524.0749000013, 2318585.954099998 809528.7329000011, 2318593.013899997 809541.4646000005, 2318597.1229000017 809548.8748000003, 2318602.8078999966 809559.1239, 2318604.872100003 809562.8451000005, 2318605.255099997 809564.0251000002, 2318607.7079000026 809571.5800999999, 2318610.7939999998 809581.0850999989, 2318612.7032999992 809586.9651000015, 2318617.5823 809645.5883000009, 2318619.384499997 809663.2745000012, 2318623.097900003 809699.7118000016, 2318636.030100003 809755.7413000017, 2318637.079099998 809760.2859000005, 2318640.116899997 809773.2987000011, 2318650.0900000036 809816.0199999996, 2318651.3759000003 809821.4450999983, 2318658.972099997 809853.4990999997, 2318660.5134999976 809860.0020999983, 2318662.0551000014 809866.5058999993, 2318662.1061000004 809866.7217000015, 2318662.979800001 809870.4098999985, 2318663.7876999974 809873.8222999983, 2318663.882100001 809874.2208999991, 2318665.725299999 809881.9979000017, 2318672.5810000002 809910.9250000007, 2318673.581699997 809915.1479999982, 2318675.0988000035 809922.0141999982, 2318677.954999998 809934.9299999997, 2318680.4311000034 809946.1352999993, 2318683.943099998 809962.0274999999, 2318690.6040999964 809992.1587000005, 2318695.0842999965 810013.4111000001, 2318702.0917000026 810045.4316999987, 2318706.031999998 810063.436900001, 2318706.0359999985 810067.2239000015, 2318706.042300001 810072.9189000018, 2318706.0474999994 810077.564100001, 2318706.0529000014 810082.2111999989, 2318711.310800001 810119.2670999989, 2318716.667800002 810157.011500001, 2318717.2831000015 810161.3462999985, 2318720.7942999974 810187.0099, 2318721.9177 810193.6526999995, 2318722.534000002 810197.2960000001, 2318726.5248000026 810233.3438000008, 2318753.0019000024 810383.0573000014, 2318763.6608000025 810407.8000999987, 2318768.8219000027 810419.6228, 2318787.402999997 810461.3861999996, 2318798.3259000033 810485.9371000007, 2318804.5649999976 810505.3414999992, 2318810.8043000028 810524.746100001, 2318817.179899998 810540.813099999, 2318826.9628000036 810565.4659999982, 2318835.394100003 810586.6779000014, 2318843.0742999986 810605.9996999986, 2318853.320299998 810630.5342999995, 2318859.5419000015 810645.432, 2318863.326700002 810654.7067000009, 2318867.439199999 810664.7837999985, 2318907.1196999997 810648.868900001, 2318933.5128000006 810638.2831999995))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,6 +592,11 @@
       <c r="L3" t="n">
         <v>5.193890449228859</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>POLYGON ((2319196.8477 804654.6455999985, 2319197.5084000006 804654.6453999989, 2319307.796400003 804656.2820999995, 2319308.541100003 804646.4292000011, 2319311.8479999974 804602.7131999992, 2319317.2211000025 804534.7390000001, 2319319.541699998 804505.3867000006, 2319323.594899997 804441.0252999999, 2319323.727300003 804440.0885999985, 2319325.9514999986 804424.3585000001, 2319335.8302000016 804299.3737000003, 2319344.5239999965 804188.444699999, 2319353.2876999974 804076.6094000004, 2319354.014700003 804067.2778000012, 2319361.218500003 803974.8654000014, 2319361.791000001 803967.5185999982, 2319361.9092999995 803966.1094000004, 2319366.590599999 803910.0042999983, 2319368.1603000015 803890.5843999982, 2319371.810999997 803850.4875999987, 2319380.1033999994 803744.9574999996, 2319390.0182000026 803624.0289000012, 2319394.3566000015 803573.6744000018, 2319395.0857999995 803565.2193999998, 2319395.1978999972 803563.8997000009, 2319419.7990999967 803276.1438999996, 2319421.1306999996 803260.5700999983, 2319423.9727 803206.0267999992, 2319418.9924999997 803205.5665000007, 2319382.4152000025 803202.0067000017, 2319290.0815000013 803192.9692000002, 2319289.4244000018 803192.9252000004, 2319280.2842999995 803192.0181000009, 2319279.632100001 803191.9431999996, 2319270.490199998 803191.0604000017, 2319269.8330999985 803191.0119999982, 2319166.9946999997 803180.9045999981, 2319166.3368000016 803180.8859999999, 2319083.0923999995 803173.443, 2319082.4324999973 803173.4277999997, 2318977.5381999984 803165.1603999995, 2318976.8783000037 803165.1429999992, 2318769.7456 803146.9156999998, 2318769.0886999965 803146.8916000016, 2318754.332699999 803145.6086999997, 2318753.672700003 803145.5890999995, 2318620.9954999983 803133.1919, 2318620.465400003 803133.1677000001, 2318556.9802 803130.2729999982, 2318441.8813999966 803118.8234999999, 2318424.852499999 803112.4598000012, 2318370.184799999 803106.4292000011, 2318317.4548999965 803105.2210000008, 2318317.0710000023 803105.2122000009, 2318316.831799999 803105.2285000011, 2318264.0155000016 803108.8267999999, 2318254.6774000004 803109.6831, 2318220.707999997 803114.5540000014, 2318206.527400002 803116.9556999989, 2318200.9371000007 803118.5100000016, 2318084.8663000017 803137.0117999986, 2318061.365699999 803141.7564999983, 2318014.2497999966 803149.2496000007, 2318013.6674999967 803149.3421999998, 2318013.626699999 803149.257100001, 2317922.759800002 802959.7342000008, 2317922.6489999965 802959.5031000003, 2317922.136699997 802959.7417000011, 2317690.347599998 803067.7177000009, 2317693.213100001 803072.7408999987, 2317731.9624999985 803140.6204999983, 2317772.2304000035 803206.1730000004, 2317845.924900003 803326.1413000003, 2317895.722400002 803406.6726999991, 2317895.9853999987 803407.0980999991, 2317920.3982999995 803446.5885000005, 2317941.1559000015 803480.2228999995, 2317960.6969000027 803511.8836999983, 2317980.587899998 803544.1064999998, 2317990.4525000006 803560.0925000012, 2318003.244099997 803580.5511000007, 2318024.8386999965 803615.0940999985, 2318046.4463 803649.6590999998, 2318066.5863000005 803681.8724999987, 2318084.2342000008 803710.1057999991, 2318084.660700001 803709.7307999991, 2318099.575000003 803696.6468999982, 2318097.8489999995 803707.5142999999, 2318096.5339 803721.2243000008, 2318096.6658999994 803721.6488999985, 2318106.0565000027 803751.7023000009, 2318137.1768999994 803799.8462999985, 2318184.341799997 803872.8117000014, 2318232.5024000034 803947.317499999, 2318232.715099998 803947.6462000012, 2318258.9931000024 803988.3013000004, 2318263.990699999 803996.0313999988, 2318278.2327999994 804019.3376999982, 2318280.654100001 804023.2985999994, 2318295.0705000013 804046.8898999989, 2318301.604699999 804057.5846000016, 2318318.4124 804085.0885999985, 2318322.3369000033 804091.5111000016, 2318323.3276999965 804093.135400001, 2318339.0097000003 804118.7969999984, 2318370.3210999966 804173.493999999, 2318429.612499997 804264.0703000017, 2318494.599100001 804359.4239000008, 2318554.079099998 804457.0610999987, 2318564.5573000014 804481.4056000002, 2318568.1697999984 804489.7972000018, 2318571.2211000025 804498.2661999986, 2318589.8933999985 804550.0973000005, 2318593.303000003 804562.3709999993, 2318634.862499997 804694.0722000003, 2318645.496600002 804722.757100001, 2318646.1548999995 804722.7325999998, 2318752.5538000017 804699.5681999996, 2318753.193099998 804699.443500001, 2318805.9543000013 804689.5212999992, 2318806.6093999967 804689.4913000017, 2318964.7436000034 804671.5667000003, 2318965.398400001 804671.5124999993, 2319066.194600001 804664.2115999982, 2319066.854699999 804664.1627999991, 2319196.8477 804654.6455999985))</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -626,6 +641,11 @@
       <c r="L4" t="n">
         <v>3.624163227108493</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>POLYGON ((2320207.0178999975 803190.8238999993, 2320268.9114999995 803111.7463999987, 2320269.2993 803111.3729999997, 2320334.5560000017 803048.4481999986, 2320653.284599997 802602.0331999995, 2320643.9587000012 802584.4224999994, 2320629.5912000015 802572.0357999988, 2320614.634499997 802566.5346000008, 2320589.4169000015 802555.0822999999, 2320569.813699998 802534.1140000001, 2320557.4875999987 802514.8134000003, 2320547.1987999976 802488.5989000015, 2320539.5754000023 802477.3451999985, 2320539.3831999972 802477.0604000017, 2320524.453599997 802455.0273000002, 2320506.267499998 802432.5848000012, 2320488.1547000036 802394.940200001, 2320449.0649000034 802359.1534999982, 2320417.376000002 802312.7276999988, 2320377.5627999976 802220.868999999, 2320356.731899999 802192.688099999, 2320335.285400003 802169.944600001, 2320293.350299999 802118.2930999994, 2320271.4809999987 802073.8469000012, 2320240.8347000033 802025.2325999998, 2320223.4416000023 802006.0302999988, 2320201.8342999965 801975.3293000013, 2320192.121600002 801959.9591999985, 2320115.4015000015 801889.0751999989, 2320075.1493000016 801849.3282999992, 2320048.8791999966 801820.8914999999, 2320040.0331000015 801813.1019000001, 2319997.4793 801786.0877999999, 2319974.9333999977 801768.6024000011, 2319968.282499999 801752.7459000014, 2319968.191399999 801752.5287999995, 2319967.6592999995 801752.7534000017, 2319959.053000003 801756.3854999989, 2319946.1635999978 801761.8273999989, 2319938.6278000027 801766.9776999988, 2319932.1208999977 801771.4268000014, 2319835.7452000007 801876.5483999997, 2319796.0666000023 801923.7087999992, 2319790.1840000004 801930.7019999996, 2319783.416100003 801938.7426999994, 2319756.653999999 801970.5535999984, 2319744.275799997 801985.8051000014, 2319738.538900003 801992.8706, 2319731.9131999984 802001.0364999995, 2319724.5481999964 802010.1077999994, 2319662.411700003 802086.6583999991, 2319661.9672000036 802087.2060000002, 2319590.8707000017 802172.3460999988, 2319590.536700003 802172.7476000004, 2319521.0515 802270.6884999983, 2319506.424900003 802309.9781000018, 2319498.7192 802359.5003000014, 2319478.6906000003 802569.4464000016, 2319467.8363000005 802689.3132999986, 2319464.839900002 802725.4213000014, 2319455.9452000037 802832.6169999987, 2319455.836199999 802833.9354999997, 2319454.036399998 802855.6162, 2319453.6312000006 802860.4824000001, 2319452.583899997 802873.1048999988, 2319452.547200002 802873.5425999984, 2319452.2668000013 802876.9244999997, 2319451.730700001 802883.373300001, 2319450.945600003 802893.2003999986, 2319450.8030999973 802894.9653999992, 2319450.5178000033 802898.5483000018, 2319448.100299999 802928.6981999986, 2319446.0295 802954.5335999988, 2319445.9135999978 802955.9802000001, 2319443.001000002 802980.0084000006, 2319440.020499997 803003.8949000016, 2319437.924999997 803030.2925000004, 2319436.4464000016 803048.9219999984, 2319437.1064999998 803048.9428999983, 2319473.0419000015 803052.5678999983, 2319473.6768999994 803052.6904999986, 2319492.9799000025 803057.5808999985, 2319588.0691 803132.7582999989, 2319641.3572999984 803176.5139000006, 2319647.9880999997 803179.6682999991, 2319761.7641000003 803212.0599000007, 2319762.4240999967 803212.0806999989, 2319769.9311000034 803212.3770999983, 2319787.5217000023 803205.0483000018, 2319850.343699999 803152.8922999986, 2319850.5694999993 803153.2551000006, 2319855.5090999976 803161.1840999983, 2319912.1805000007 803252.1992999986, 2320052.420599997 803435.3647000007, 2320087.8554999977 803421.7954000011, 2320115.0764999986 803403.3506000005, 2320142.1493000016 803377.3256999999, 2320175.987400003 803309.1275999993, 2320184.280299999 803274.5078999996, 2320192.8620999977 803219.2038999982, 2320207.0178999975 803190.8238999993))</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -670,6 +690,11 @@
       <c r="L5" t="n">
         <v>3.310861679604751</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>POLYGON ((2317155.3572999984 810763.5738000013, 2317160.2032999992 810751.9847000018, 2317163.5675000027 810743.6295000017, 2317175.3055000007 810715.8731000014, 2317219.0785000026 810611.2006999999, 2317230.7119000033 810582.4123000018, 2317220.6216999963 810574.0562999994, 2317156.5603 810472.0265000015, 2317118.543300003 810407.6645999998, 2317080.591499999 810346.8889000006, 2317041.6010999978 810284.1717999987, 2317005.2392999977 810223.7432999983, 2316965.962200001 810159.5824000016, 2316941.125500001 810114.8189000003, 2316932.664499998 810099.8786999993, 2316917.8213 810071.1849000007, 2316916.304899998 810068.3827, 2316897.530100003 810034.3469000012, 2316893.085500002 810027.6787, 2316862.2435000017 809969.7677000016, 2316859.036899999 809963.5205000006, 2316836.6093000025 809919.3117000014, 2316828.5517000034 809904.1149000004, 2316816.375699997 809876.8273000009, 2316793.0515 809836.8489000015, 2316768.5617000014 809791.3957999982, 2316747.600299999 809750.131099999, 2316745.9892999977 809746.9767000005, 2316725.509300001 809708.6519000009, 2316708.854500003 809677.4444999993, 2316693.163900003 809647.4118999988, 2316674.7245000005 809614.0458999984, 2316669.9089 809605.3352999985, 2316646.200099997 809561.3145000003, 2316625.1207000017 809521.7705000006, 2316598.8016000018 809472.1165999994, 2316528.7413000017 809517.560899999, 2316490.1633 809538.2861000001, 2316414.971699998 809575.3222999983, 2316347.860100001 809608.3817000017, 2316312.7956999987 809622.5077, 2316079.5798999965 809716.6726999991, 2315932.4821999967 809773.1409000009, 2315932.4025000036 809773.1715000011, 2315996.0429999977 809918.0452000014, 2316051.655500002 810046.9506999999, 2316106.3543 810172.4919000007, 2316116.4975000024 810195.7298999988, 2316158.0467000008 810290.9299000017, 2316161.0830999985 810297.9045000002, 2316203.6457 810395.6788999997, 2316217.250699997 810426.9327000007, 2316248.6625000015 810499.8497000001, 2316256.5020999983 810518.0452999994, 2316301.3451000005 810608.0527000017, 2316335.3571000025 810676.2358999997, 2316379.5540999994 810757.6457000002, 2316438.7622999996 810866.9193000011, 2316477.879900001 810940.1242999993, 2316493.022699997 810968.4604999982, 2316547.266900003 811063.9521000013, 2316610.532899998 811160.8016999997, 2316611.7126 811173.2309000008, 2316611.732900001 811173.4442999996, 2316611.8993000016 811187.0883000009, 2316612.4915999994 811235.6458999999, 2316612.5059999973 811236.8277000003, 2316612.512500003 811237.3566999994, 2316613.0977 811285.3225000016, 2316613.1152999997 811286.7622999996, 2316613.1504999995 811289.6466999985, 2316613.186499998 811292.5995000005, 2316613.186800003 811292.6248999983, 2316613.188500002 811292.7633000016, 2316613.1900999993 811292.9008999988, 2316613.1908000037 811292.9558999985, 2316613.1982999966 811293.5643000007, 2316641.522500001 811291.6411000006, 2316671.099299997 811290.6433000006, 2316730.9869000018 811287.8988999985, 2316848.400899999 811339.0311000012, 2316898.8125 811247.9505000003, 2316925.583899997 811199.5793000013, 2316949.4623000026 811155.8051000014, 2317002.2322999984 811059.0667000003, 2317054.0419000015 810964.0876999982, 2317060.3307000026 810952.808699999, 2317076.4870999977 810923.8385000005, 2317111.5649000034 810856.3123000003, 2317134.2255000025 810813.3147, 2317145.950099997 810786.2784999982, 2317149.1919 810778.8046999983, 2317150.7277000025 810775.0102999993, 2317155.3572999984 810763.5738000013))</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +739,11 @@
       <c r="L6" t="n">
         <v>3.149051119494541</v>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>POLYGON ((2315751.664800003 805258.3856999986, 2315730.950099997 805060.0317000002, 2315730.444600001 805055.1975999996, 2315730.4439999983 805055.1920000017, 2315730.113300003 805055.199000001, 2315729.8215999976 805055.2052000016, 2315649.5341000035 805056.9101000018, 2315648.8791999966 805056.9556999989, 2315632.4070999995 805060.3936999999, 2315631.764399998 805060.4932000004, 2315622.159500003 805066.5100999996, 2315614.8781000003 805075.4010000005, 2315600.7578999996 805099.3306000009, 2315590.8213 805110.2811999992, 2315581.7194000036 805114.7252000012, 2315574.3101999983 805119.5945000015, 2315558.147500001 805125.938099999, 2315557.5341000035 805126.117800001, 2315553.9441 805127.5507999994, 2315523.233099997 805140.0943999998, 2315412.888700001 805178.9461999983, 2315328.2792000026 805222.8264000006, 2315287.864699997 805244.6722000018, 2315233.758100003 805288.2600999996, 2315219.6180000007 805298.7270999998, 2315209.902800001 805305.9103999995, 2315209.474799998 805306.2269000001, 2315209.2797000036 805305.9180000015, 2315200.7817 805292.4633000009, 2315116.5232999995 805153.5870999992, 2315067.5288999975 805071.7723999992, 2314958.0239000022 804889.9494000003, 2314955.9958000034 804882.4598999992, 2314955.8850999996 804876.6130000018, 2314960.968500003 804870.6612999998, 2315024.8434000015 804845.3737000003, 2315029.942599997 804840.0722000003, 2315034.352300003 804832.8381000012, 2315036.0636000037 804820.4534999989, 2315035.161399998 804807.4717999995, 2314985.0713 804733.9919999987, 2314933.3178000003 804658.0683999993, 2314928.9849999994 804651.7322999984, 2314894.619599998 804600.6829000004, 2314881.475299999 804581.3498999998, 2314860.8323 804550.9932999983, 2314811.7278999984 804478.1099999994, 2314796.8500000015 804448.496199999, 2314796.548100002 804365.9506999999, 2314772.6379000023 804349.1948000006, 2314758.4948000014 804339.2820000015, 2314714.8927000016 804328.1125000007, 2314657.3061000034 804236.9365999997, 2314616.981399998 804254.5469999984, 2314616.3746000007 804254.6649000011, 2314645.171099998 804317.4792000018, 2314679.652800001 804381.4765999988, 2314614.852300003 804415.4288000017, 2314614.3281999975 804415.7056999989, 2314571.3391999975 804438.4255999997, 2314570.854699999 804438.6810999997, 2314567.244099997 804440.5804999992, 2314596.9496000037 804501.0835999995, 2314615.141099997 804535.3409999982, 2314612.586099997 804542.8957000002, 2314610.1274999976 804550.0971000008, 2314610.6709999964 804557.0086000003, 2314618.856399998 804572.0557000004, 2314594.517999999 804586.7839000002, 2314587.0176 804591.3214000016, 2314586.1743 804591.9092999995, 2314584.659699999 804592.8310999982, 2314577.2079000026 804596.0331000015, 2314567.813699998 804600.071800001, 2314485.3893000036 804631.8392999992, 2314402.717699997 804669.2034999989, 2314395.290100001 804673.8561000004, 2314390.3976000026 804679.9657999985, 2314390.0727000013 804688.9924000017, 2314392.261 804698.4704000019, 2314407.070600003 804731.5458999984, 2314415.719499998 804750.8302000016, 2314431.6032000035 804786.8117000014, 2314459.134499997 804849.1783000007, 2314374.0763000026 804888.0846000016, 2314366.286899999 804891.8695, 2314365.696800001 804892.0689000003, 2314356.115699999 804896.3286000006, 2314299.3593999967 804922.4353, 2314298.881099999 804922.6796999983, 2314289.1872000024 804909.6563999988, 2314272.8518999964 804887.6418999992, 2314241.3016000018 804844.2558000013, 2314182.8906999975 804776.5056000017, 2314156.7814000025 804758.3669000007, 2314125.777800001 804747.9752999991, 2314090.0599000007 804745.0339000002, 2314089.4098000005 804745.0419000015, 2314060.7185999975 804750.8508000001, 2314060.0815000013 804750.9800999984, 2314026.0747999996 804758.1884999983, 2314025.422700003 804758.2881999984, 2314030.1471000016 804803.1383000016, 2314032.851599999 804814.1501000002, 2314040.1252999976 804826.751600001, 2314218.8708000034 805073.2696000002, 2314300.905500002 805194.1400000006, 2314308.4624999985 805227.4338999987, 2313897.7448000014 805227.0888999999, 2313897.136500001 805227.0876000002, 2313715.9416999966 805226.3401000015, 2313715.358599998 805226.3374000005, 2313700.867700003 805226.2751000002, 2313700.2060000002 805226.2756000012, 2313513.5006000027 805225.4871999994, 2313512.8412000015 805225.5075000003, 2313465.5132 805230.0271999985, 2313464.855300002 805230.0839999989, 2313311.6643999964 805240.0777999982, 2313311.003899999 805240.0927000009, 2313161.3088999987 805249.8603000008, 2313160.6494000033 805249.8729000017, 2313089.6449000016 805254.4990999997, 2312962.662900001 805262.8095000014, 2312962.6459000036 805262.8095000014, 2312962.0011000037 805262.8092, 2312962.0229 805262.8172000013, 2313180.3681000024 805343.0196000002, 2313180.518799998 805343.0747999996, 2313180.690399997 805343.1380000003, 2313189.583300002 805346.4045999981, 2313192.5732000023 805347.502700001, 2313264.294500001 805373.8469000012, 2313279.0200000033 805379.0720000006, 2313297.8625999987 805385.7580000013, 2313324.037299998 805395.0456999987, 2313379.0185000002 805414.5549999997, 2313624.2663000003 805501.5819000006, 2313688.4521000013 805524.3583999984, 2313807.7712000012 805563.7668999992, 2313838.6162 805573.9543999992, 2313847.6933000013 805577.7179000005, 2313847.705799997 805577.7230999991, 2313884.635300003 805593.0346999988, 2313885.279799998 805593.0329999998, 2313885.297200002 805593.0329999998, 2313946.647399999 805581.058600001, 2313947.2876999974 805580.936999999, 2314456.7364000008 805485.0018000007, 2314457.392499998 805484.9715999998, 2314541.8786000013 805468.8931000009, 2314542.5244000033 805468.7956999987, 2314556.905299999 805466.0844999999, 2314557.5626000017 805466.061999999, 2314566.517099999 805464.2514000013, 2314567.1630000025 805464.1605999991, 2314707.4465999976 805437.9739999995, 2314708.1027000025 805437.9437999986, 2314795.5040000007 805423.6028000005, 2314796.1532000005 805423.5174999982, 2314802.021300003 805422.4626000002, 2314805.1538999975 805422.0487000011, 2314805.7996999994 805421.9468999989, 2314814.8117000014 805420.4580000006, 2314815.460900001 805420.3794, 2315167.909400001 805362.9814999998, 2315168.5666000023 805362.9547000006, 2315280.5383 805344.6402000003, 2315281.1965000033 805344.6132999994, 2315608.1120999977 805283.7005999982, 2315608.7682000026 805283.6693000011, 2315751.664800003 805258.3856999986))</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -758,6 +788,11 @@
       <c r="L7" t="n">
         <v>6.060215053763441</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>POLYGON ((2332862.8724000007 815228.8077999987, 2332886.6630999967 815214.7003000006, 2332895.394299999 815121.8313999996, 2332959.688199997 815013.0874000005, 2332822.224200003 814978.5808999985, 2332852.2007 814868.7547999993, 2332857.5084000006 814818.0091999993, 2332862.325199999 814771.9365000017, 2332867.205600001 814725.2736000009, 2332886.6045999974 814617.9307000004, 2332877.7519999966 814570.4400999993, 2332867.7892000005 814567.5029000007, 2332867.5543000028 814567.5324999988, 2332867.346199997 814567.558699999, 2332817.4860000014 814573.8416000009, 2332749.281800002 814585.1066999994, 2332730.699699998 814584.3652999997, 2332730.5461999997 814584.3592000008, 2332730.4880999997 814584.3652999997, 2332695.3473000005 814588.0672999993, 2332670.949000001 814602.0742000006, 2332612.4724999964 814616.8979000002, 2332574.0584999993 814634.9061999992, 2332551.456600003 814646.1853, 2332480.7048000023 814702.560899999, 2332475.1624 814706.9780000001, 2332469.7258 814711.3106999993, 2332429.9563999996 814723.1501000002, 2332425.842299998 814724.3748999983, 2332396.7364000008 814733.0399000011, 2332359.647699997 814745.0439000018, 2332176.3916999996 814804.3508000001, 2332145.340300001 814814.3999000005, 2332145.190700002 814814.4483000003, 2332145.128700003 814814.3999000005, 2332145.1050999984 814814.3814999983, 2332145.0456999987 814814.3350999989, 2332136.4706000015 814807.6449000016, 2332131.399700001 814803.6882000007, 2332123.170599997 814797.2674000002, 2332122.770499997 814795.7881999984, 2332109.548799999 814746.9120999984, 2332099.6894999966 814710.4657000005, 2332092.669200003 814686.1174000017, 2332092.6503000036 814686.0516999997, 2332066.768299997 814596.2853999995, 2332066.7507999986 814596.2248000018, 2332044.9526000023 814520.6220999993, 2332044.9299999997 814520.5436000004, 2332044.7409999967 814520.622200001, 2331981.454999998 814546.9310000017, 2331930.2179000005 814568.2316000015, 2331733.2052000016 814650.1325000003, 2331722.570799999 814683.1284000017, 2331722.5496999994 814683.1939999983, 2331722.542000003 814683.2179999985, 2331722.338100001 814683.1939999983, 2331722.125 814683.1688000001, 2331570.452299997 814665.2954000011, 2331552.1960000023 814663.1440000013, 2331488.6959000006 814655.6609999985, 2331481.6240999997 814654.8275999986, 2331481.4108999968 814654.8024999984, 2331481.4045 814654.8018000014, 2331481.4124 814654.8277000003, 2331481.4162999988 814654.8403999992, 2331516.6986000016 814770.1242999993, 2331560.5084000006 814910.3335000016, 2331573.9897999987 814956.6895000003, 2331577.9003000036 814967.9512000009, 2331579.5500999987 814973.6732000001, 2331527.060800001 814979.249400001, 2331526.9472000003 814979.261500001, 2331526.849200003 814979.249400001, 2331526.6357000023 814979.2230999991, 2331516.387599997 814977.9613000005, 2331394.586000003 814969.1609999985, 2331290.880400002 814964.0291000009, 2331194.047200002 814959.2379000001, 2331175.1149000004 814852.5546000004, 2331173.0222000033 814840.7622000016, 2331122.5637999997 814833.6180000007, 2331102.8862999976 814830.8319999985, 2331061.0645999983 814811.4571000002, 2331060.570600003 814811.2281999998, 2331060.372100003 814811.1363000013, 2331060.362400003 814811.2041000016, 2331060.3589999974 814811.2281999998, 2331052.974600002 814862.9151999988, 2331083.6736999974 814878.5419999994, 2331069.7786 814951.3566999994, 2331069.776100002 814951.3698999994, 2331069.5670000017 814951.3566999994, 2331036.961099997 814949.2917999998, 2331036.7487000003 814949.2782999985, 2331036.749499999 814949.2917999998, 2331040.659599997 815015.7393000014, 2331040.666100003 815015.8491999991, 2331040.6675999984 815015.8751000017, 2331204.7986999974 815027.6268999986, 2331270.7058999985 815033.6524999999, 2331279.012699999 815034.4118999988, 2331337.6296000034 815040.0078000017, 2331352.595899999 815042.3291999996, 2331365.3412000015 815043.4028000012, 2331520.1674000025 815056.4365000017, 2331520.3812000006 815056.4545000009, 2331579.9016999975 815063.0291999988, 2331675.122299999 815062.0276000015, 2331777.0024999976 815082.8022999987, 2331850.429399997 815098.9030000009, 2331875.895499997 815104.5053999983, 2331958.599600002 815122.1554000005, 2332062.4934 815144.1702000014, 2332151.356700003 815161.1253999993, 2332170.7448000014 815095.1711999997, 2332187.6565999985 815018.681499999, 2332187.6652999967 815018.6422999986, 2332187.686999999 815018.6911999993, 2332215.899899997 815082.1251000017, 2332253.1353999972 815091.6173, 2332340.9949999973 815110.0067000017, 2332443.8363000005 815132.0392000005, 2332557.7353999987 815154.6966000013, 2332716.4508000016 815187.0938999988, 2332705.207699999 815229.3366999999, 2332741.1677 815223.0689999983, 2332782.5744000003 815217.8524000011, 2332838.965599999 815236.5097999983, 2332847.543899998 815241.2751000002, 2332855.0040000007 815245.7492000014, 2332866.0260000005 815249.8227000013, 2332866.263700001 815249.9105000012, 2332866.2119999975 815249.7802999988, 2332858.837099999 815231.2006999999, 2332862.8724000007 815228.8077999987))</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -802,6 +837,11 @@
       <c r="L8" t="n">
         <v>6.036418848464301</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>POLYGON ((2335418.6854000017 822464.0405000001, 2335379.409599997 822424.2309000008, 2335414.229000002 822390.2998000011, 2335450.8828999996 822354.2800000012, 2335497.3543 822306.1394999996, 2335503.1115000024 822299.0769000016, 2335527.478500001 822267.4362000003, 2335567.978699997 822229.4417000003, 2335576.3087000027 822221.6235000007, 2335629.1174999997 822169.9710999988, 2335635.513700001 822164.2316999994, 2335566.7963000014 822095.7738999985, 2335497.6652999967 822021.2760999985, 2335427.4353 821956.0808999985, 2335331.5041000023 821894.5628999993, 2335257.6467000023 821852.7217000015, 2335213.464299999 821827.2322999984, 2335169.108099997 821802.1336999983, 2335145.7973000035 821823.4965000004, 2335076.217500001 821756.5954999998, 2334912.1416999996 821917.3597000018, 2334818.2502000034 821852.2703999989, 2334798.9377999976 821872.1493000016, 2334784.447300002 821867.381000001, 2334743.921099998 821861.506000001, 2334720.160099998 821858.4492000006, 2334701.082800001 821856.4679999985, 2334681.2497000024 821866.3273999989, 2334659.2946999967 821880.4191999994, 2334630.7814000025 821892.0454999991, 2334614.856899999 821898.9796999991, 2334594.112999998 821890.0527000017, 2334571.2409999967 821881.2551000006, 2334564.1943999976 821892.7774999999, 2334538.4623000026 821934.7340000011, 2334492.1564000025 822032.8090999983, 2334488.7518000007 822040.0216999985, 2334627.3056000024 822106.693500001, 2334599.193599999 822117.9079999998, 2334558.808600001 822132.9822000004, 2334479.3483999968 822161.5159000009, 2334566.9777000025 822229.2969000004, 2334615.6894000024 822258.9741999991, 2334684.007100001 822297.7270999998, 2334698.7566 822305.7941000015, 2334695.0709000006 822314.6843000017, 2334691.9626 822347.1123000011, 2334699.3752000034 822362.4836999997, 2334694.7114999965 822373.306499999, 2334690.9870000035 822381.9123000018, 2334674.632100001 822419.2701999992, 2334708.5776999965 822435.618999999, 2334716.1687999964 822442.7646999992, 2334725.1021 822451.174899999, 2334768.874499999 822472.1534000002, 2334834.3364000022 822501.6504999995, 2334866.349600002 822519.0099, 2334899.6361000016 822470.3016999997, 2334910.642099999 822461.7340000011, 2334936.8078000024 822442.6367000006, 2334978.350100003 822416.3478000015, 2335019.380900003 822390.3913000003, 2335030.744099997 822382.1983999982, 2335026.3127999976 822398.1779999994, 2335030.2478 822408.1611000001, 2335073.3608999997 822420.6347999983, 2335084.887699999 822446.0350000001, 2335106.4965000004 822523.2608999982, 2335118.8904 822576.2413000017, 2335128.592699997 822596.7239999995, 2335147.212200001 822650.6174000017, 2335186.644699998 822766.4756999984, 2335193.905500002 822791.3773999996, 2335224.8853999972 822792.5476000011, 2335228.8731999993 822788.9305999987, 2335233.237400003 822784.9695999995, 2335281.166699998 822757.3443000019, 2335326.5733999982 822725.4693999998, 2335355.788900003 822685.121199999, 2335394.4787999988 822599.6418000013, 2335406.1894000024 822573.7285000011, 2335420.8505000025 822556.3951999992, 2335437.652099997 822515.7690999992, 2335447.4133 822477.310899999, 2335418.6854000017 822464.0405000001))</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -846,6 +886,11 @@
       <c r="L9" t="n">
         <v>5.06172977903397</v>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>POLYGON ((2332653.0046999976 816171.2855000012, 2332661.059799999 816150.9365000017, 2332661.267499998 816150.9461999983, 2332696.275799997 816152.5865999982, 2332813.7096000016 816158.0909000002, 2332813.792199999 816158.0848999992, 2332823.6745999977 816157.3619000018, 2332910.2665000036 816156.6041000001, 2332929.3293000013 816081.3027999997, 2332947.0427 816024.7622000016, 2332981.972900003 815907.1396000013, 2332946.693400003 815888.7008000016, 2332909.228500001 815877.1121000014, 2332889.3271000013 815870.0051999986, 2332887.6789999977 815869.4166000001, 2332866.7026000023 815864.6435000002, 2332838.9614000022 815872.9268999994, 2332829.040100001 815871.2831000015, 2332834.0190000013 815865.4519000016, 2332833.7003000006 815837.6506999992, 2332828.7009000033 815823.5505000018, 2332825.7119999975 815808.9378999993, 2332824.4393000007 815796.4532999992, 2332821.6774000004 815781.8038999997, 2332818.9416000023 815765.7333999984, 2332817.150700003 815751.1372000016, 2332816.2663000003 815735.5064999983, 2332813.5631000027 815721.6158999987, 2332809.8822000027 815707.1589000002, 2332807.816399999 815692.3416999988, 2332806.6947000027 815677.4244999997, 2332806.3731999993 815662.4686000012, 2332804.858900003 815647.5855999999, 2332803.4032000005 815632.6953999996, 2332806.1457 815617.6259000003, 2332809.9860000014 815610.4175000004, 2332814.8718999997 815589.0692999996, 2332816.690200001 815574.9474, 2332820.447499998 815560.4660999998, 2332821.3743999973 815545.5359999985, 2332820.391400002 815530.6515000015, 2332820.147699997 815519.3841000013, 2332819.6614999995 815500.739599999, 2332823.364699997 815486.2014999986, 2332829.2448000014 815472.4450000003, 2332830.867700003 815457.6176000014, 2332830.6154000014 815442.6598999985, 2332829.4988999963 815427.7415000014, 2332827.9976999983 815412.813099999, 2332826.753200002 815405.8819999993, 2332831.1272 815383.7236000001, 2332833.219300002 815368.8656000011, 2332833.2148 815353.9503000006, 2332833.770199999 815339.3445000015, 2332833.770499997 815339.0012000017, 2332833.5134999976 815323.9992999993, 2332833.226599999 815309.0397000015, 2332834.6213999987 815294.1453000009, 2332838.5075000003 815279.7441999987, 2332841.6906000003 815265.0815000013, 2332844.0544999987 815250.3552000001, 2332847.543899998 815241.2751000002, 2332838.965599999 815236.5097999983, 2332782.5744000003 815217.8524000011, 2332741.1677 815223.0689999983, 2332705.092799999 815389.9780000001, 2332681.300499998 815488.8026, 2332677.7971 815512.7021000013, 2332679.8889999986 815585.0960999988, 2332567.4187999964 815557.8449999988, 2332478.6893000007 815536.7529000007, 2332355.578900002 815508.3293000013, 2332256.3555999994 815485.0835999995, 2332153.533500001 815463.8372000009, 2332076.783500001 815439.7609999999, 2332048.1150999963 815522.5522999987, 2332017.7776999995 815627.4818000011, 2331990.400600001 815720.924899999, 2331962.1745000035 815814.4072000012, 2332048.8369999975 815839.1997999996, 2332036.358400002 815882.7371999994, 2332023.193099998 815938.7941999994, 2332067.5264 815948.6691000015, 2332055.8703999966 816001.2870000005, 2332042.0781999975 816045.2342000008, 2332038.610200003 816063.3841000013, 2332028.619099997 816089.5375000015, 2331982.621100001 816083.8918000013, 2331974.548100002 816116.0557000004, 2332020.0412999988 816130.2692000009, 2332059.1154000014 816142.560800001, 2332141.992899999 816166.5097000003, 2332221.851999998 816190.2575999983, 2332239.8162999973 816193.5267000012, 2332239.627899997 816181.6229000017, 2332247.3664000034 816172.9512999989, 2332262.735100001 816150.1336999983, 2332258.8765999973 816107.5980999991, 2332238.341499999 816089.2083999999, 2332238.6275999993 816089.2751000002, 2332280.418399997 816099.0185000002, 2332346.1318000033 816112.6297000013, 2332346.1510000005 816112.5898000002, 2332359.3312000036 816085.1821999997, 2332359.5058000013 816085.2591999993, 2332367.7542999983 816088.8984000012, 2332550.6772999987 816169.6026999988, 2332613.4882000014 816197.3148000017, 2332639.681900002 816210.3830999993, 2332639.8632000014 816210.4734999985, 2332639.8681000024 816210.4589000009, 2332639.8935000002 816210.3830999993, 2332653.0046999976 816171.2855000012))</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -890,6 +935,11 @@
       <c r="L10" t="n">
         <v>4.503368096581746</v>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>POLYGON ((2335898.967299998 822177.8682999983, 2335916.9811000004 822152.9351000004, 2335924.259300001 822129.2650999986, 2335923.784699999 822100.3049000017, 2335916.8018999994 822059.430300001, 2335898.706100002 821990.9554999992, 2335887.860100001 821952.2181000002, 2335873.2753000036 821932.8225000016, 2335852.7356999964 821910.6860999987, 2335812.975100003 821878.3887000009, 2335799.5467000008 821867.1537000015, 2335706.7978999987 821812.7217000015, 2335614.688500002 821760.0133000016, 2335560.035099998 821726.6398999989, 2335479.2312999964 821677.624499999, 2335440.153300002 821648.4886999987, 2335378.0408999994 821589.6090999991, 2335334.7876999974 821553.1862999983, 2335298.6878999993 821524.0866999999, 2335257.048100002 821494.9750999995, 2335217.538900003 821462.9835000001, 2335174.9569000006 821433.4673000015, 2335137.710699998 821389.1341000013, 2335104.112300001 821330.5064999983, 2335105.6369000003 821308.5095000006, 2335105.9417999983 821304.1215000004, 2335095.027900003 821267.060899999, 2335088.259499997 821275.0137000009, 2335088.107900001 821275.1917000003, 2335062.7053000033 821166.3011000007, 2335025.7700999975 821018.4433000013, 2335011.6159000024 820965.3720999993, 2335007.5837000012 820954.2247000001, 2335002.5643000007 820940.3484999985, 2335000.728699997 820937.2679000013, 2334982.469499998 820938.1526999995, 2334909.411700003 820941.7492999993, 2334896.576700002 820949.5766999982, 2334883.9250999987 820957.2917000018, 2334884.3532999977 820972.2432999983, 2334884.6435000002 820987.1999000013, 2334879.9470999986 821001.4030999988, 2334875.182099998 821016.1105000004, 2334865.648500003 821031.0104999989, 2334857.6160999984 821047.3544999994, 2334850.0559 821062.7096999995, 2334844.769699998 821068.6988999993, 2334840.9368999973 821073.6774999984, 2334838.0577000007 821077.1664999984, 2334836.625500001 821080.003899999, 2334823.6181000024 821093.0069000013, 2334824.8166999966 821104.2677000016, 2334830.5086999983 821119.3667000011, 2334841.107500002 821134.3720999993, 2334850.7665000036 821151.3550999984, 2334868.9069000036 821175.5357000008, 2334878.3172999993 821205.2809000015, 2334874.210500002 821221.5487000011, 2334858.117700003 821227.254900001, 2334846.7832999974 821231.6603000015, 2334828.1875 821234.9589000009, 2334817.5119000003 821241.5436999984, 2334809.894299999 821253.9554999992, 2334797.174900003 821260.4461000003, 2334779.8696999997 821275.6268999986, 2334772.420500003 821296.8667000011, 2334781.0478999987 821311.4169000015, 2334781.2311000004 821312.070700001, 2334781.414300002 821312.7243000008, 2334744.920500003 821369.4792999998, 2334733.070100002 821369.7401, 2334715.901299998 821370.5603, 2334711.851300001 821372.8280999996, 2334702.2989000008 821378.1809, 2334694.6718999967 821377.3465000018, 2334687.045900002 821376.5119000003, 2334672.3206999972 821371.1116999984, 2334657.511699997 821373.2241000012, 2334649.6358999982 821376.2426999994, 2334643.543700002 821378.5758999996, 2334631.7336999997 821385.4263000004, 2334622.5478999987 821392.9609000012, 2334613.3106999993 821411.3493000008, 2334601.103500001 821416.8585000001, 2334585.3827000037 821421.8753000014, 2334572.653499998 821429.7358999997, 2334562.9421000034 821441.1123000011, 2334556.4944999963 821454.6097000018, 2334552.1296999976 821468.067499999, 2334547.476300001 821482.2173000015, 2334540.002700001 821496.0714999996, 2334534.608099997 821509.1268999986, 2334533.842 821515.8434000015, 2334596.0100999996 821517.5995000005, 2334602.8708999977 821438.7507000007, 2334626.724299997 821436.3445000015, 2334657.1941 821438.3016999997, 2334717.4507 821444.9153000005, 2334785.0449 821452.6306999996, 2334799.8011000007 821453.814100001, 2334925.9355000034 821468.1994999982, 2334911.6194999963 821627.2696999982, 2334965.2519000024 821633.3213, 2334965.8630999997 821718.7085000016, 2334921.4733000025 821759.7401, 2334862.2454999983 821813.2342999987, 2334818.2502000034 821852.2703999989, 2334912.1416999996 821917.3597000018, 2335076.217500001 821756.5954999998, 2335145.7973000035 821823.4965000004, 2335169.108099997 821802.1336999983, 2335213.464299999 821827.2322999984, 2335257.6467000023 821852.7217000015, 2335331.5041000023 821894.5628999993, 2335427.4353 821956.0808999985, 2335497.6652999967 822021.2760999985, 2335566.7963000014 822095.7738999985, 2335635.513700001 822164.2316999994, 2335629.1174999997 822169.9710999988, 2335633.542300001 822172.2633999996, 2335664.1143999994 822168.0888999999, 2335703.6494000033 822143.0417999998, 2335721.9434999973 822132.9739000015, 2335778.2993 822160.3537000008, 2335793.7695999965 822156.3020000011, 2335800.095700003 822153.4021000005, 2335861.258299999 822170.1988999993, 2335873.6915000007 822172.7278999984, 2335898.967299998 822177.8682999983))</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -934,6 +984,11 @@
       <c r="L11" t="n">
         <v>4.273755694406958</v>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>POLYGON ((2332023.193099998 815938.7941999994, 2332036.358400002 815882.7371999994, 2332048.8369999975 815839.1997999996, 2331962.1745000035 815814.4072000012, 2331990.400600001 815720.924899999, 2332017.7776999995 815627.4818000011, 2332048.1150999963 815522.5522999987, 2332076.783500001 815439.7609999999, 2332101.9371000007 815344.2859999985, 2332126.709399998 815262.7668999992, 2332151.356700003 815161.1253999993, 2332062.4934 815144.1702000014, 2331958.599600002 815122.1554000005, 2331875.895499997 815104.5053999983, 2331850.429399997 815098.9030000009, 2331777.0024999976 815082.8022999987, 2331675.122299999 815062.0276000015, 2331579.9016999975 815063.0291999988, 2331520.3812000006 815056.4545000009, 2331520.1674000025 815056.4365000017, 2331365.3412000015 815043.4028000012, 2331352.595899999 815042.3291999996, 2331360.5150000006 815055.9954999983, 2331366.0210999995 815069.9063999988, 2331374.026100002 815082.5428000018, 2331380.5666999966 815095.998300001, 2331386.8039000034 815109.5973999985, 2331386.1740999967 815124.5452000014, 2331380.894100003 815138.5406000018, 2331378.9761999995 815153.3792999983, 2331373.8337000012 815168.9805000015, 2331374.9604 815184.3093999997, 2331376.884300001 815193.2518000007, 2331382.7553000003 815207.7470000014, 2331388.8835000023 815221.0667999983, 2331394.8257 815234.2463999987, 2331396.1121999994 815249.1517000012, 2331397.4478999972 815264.049899999, 2331395.8038000017 815278.9208000004, 2331388.383100003 815291.9114000015, 2331387.933600001 815306.8660000004, 2331396.6890999973 815320.0029000007, 2331405.327200003 815330.3306000009, 2331411.757799998 815336.2318000011, 2331416.3501999974 815340.4481999986, 2331417.973700002 815355.3198999986, 2331422.0451999977 815369.7148999982, 2331433.0868000016 815379.8101999983, 2331443.8828999996 815390.1667000018, 2331455.895199999 815399.0808999985, 2331467.3320000023 815408.7248000018, 2331476.9944999963 815420.1449000016, 2331483.3743999973 815433.6772000007, 2331487.6696999967 815448.5089999996, 2331492.742399998 815465.6570999995, 2331494.3096999973 815469.5386000015, 2331500.1367999986 815483.9602999985, 2331501.6043 815498.1096000001, 2331503.4376000017 815515.5302000009, 2331508.215400003 815530.3986000009, 2331507.996100001 815544.8660000004, 2331498.7739999965 815558.5102999993, 2331491.554399997 815569.3370000012, 2331488.133299999 815580.8795000017, 2331490.680399999 815593.3541000001, 2331495.455799997 815609.6057999991, 2331499.9245000035 815624.6675000004, 2331505.6203000024 815642.3460999988, 2331512.9416999966 815659.762600001, 2331518.7167000026 815674.2267000005, 2331521.1925000027 815687.2652000003, 2331522.5724000037 815690.1398000009, 2331525.9868 815697.2584000006, 2331536.2665000036 815708.1251000017, 2331545.1664000005 815720.1532000005, 2331552.105700001 815733.4065999985, 2331558.911600001 815746.7287999988, 2331565.1088000014 815760.3436999992, 2331570.9858999997 815774.1013000011, 2331576.3694999963 815788.0588000007, 2331580.691399999 815802.3803000003, 2331582.8024000004 815817.192400001, 2331584.9521000013 815831.9963999987, 2331589.408699997 815846.2778000012, 2331591.2434 815861.1239, 2331593.4036 815875.9288999997, 2331595.293700002 815890.7677999996, 2331594.6882999986 815904.8231999986, 2331596.2683999985 815918.3607000001, 2331597.536799997 815932.2373000011, 2331602.1248999983 815947.0350000001, 2331603.582800001 815961.9250999987, 2331607.501000002 815984.7358999997, 2331623.137699999 815982.7159999982, 2331672.0742999986 815992.2666000016, 2331686.567900002 815987.9257999994, 2331710.3237000033 815935.8178999983, 2331738.3373000026 815838.5819999985, 2331840.251500003 815874.2950000018, 2331930.973899998 815907.6411999986, 2331916.188500002 815959.4475000016, 2331901.156300001 816007.7417000011, 2331997.0349999964 816036.1411999986, 2332008.307400003 815989.3475000001, 2332023.193099998 815938.7941999994))</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -978,6 +1033,11 @@
       <c r="L12" t="n">
         <v>5.731099502487562</v>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>POLYGON ((2252420.362499997 795395.6563000008, 2252442.000699997 795382.9105000012, 2252469.863300003 795362.0421000011, 2252480.865500003 795352.4019000009, 2252494.258299999 795344.4803000018, 2252504.063500002 795333.9798999988, 2252507.0353000015 795320.6743000001, 2252524.322499998 795315.9120999984, 2252541.621299997 795311.7382999994, 2252562.110100001 795305.1468999982, 2252578.9814999998 795265.0714999996, 2252582.5930999964 795210.2534999996, 2252579.2212999985 795184.2956999987, 2252577.711099997 795172.6781000011, 2252574.2555000037 795161.8566999994, 2252556.0353000015 795134.8498999998, 2252554.9133 795123.1000999995, 2252555.3959000036 795117.7917000018, 2252559.0632999986 795109.7729000002, 2252560.1061000004 795102.9820999987, 2252558.8100999966 795097.1220999993, 2252552.749300003 795088.7067000009, 2252544.7079000026 795084.4536999986, 2252536.065700002 795064.9079000019, 2252537.6207000017 795054.2789000012, 2252541.7531000003 795040.069699999, 2252543.366899997 795032.3850999996, 2252543.159900002 795009.9726999998, 2252543.1159000024 795005.3101000004, 2252547.5737000033 794992.565299999, 2252560.126500003 794971.8348999992, 2252569.6423000023 794962.5439000018, 2252580.516900003 794953.1774999984, 2252591.8329000026 794946.7765000015, 2252590.633299999 794921.3693000004, 2252581.045900002 794914.2331000008, 2252582.793899998 794896.3317000009, 2252582.4228999987 794892.7267000005, 2252580.857500002 794889.9477000013, 2252568.0609000027 794873.1411000006, 2252556.5490999967 794860.2237000018, 2252546.239699997 794838.3619000018, 2252551.7788999975 794806.1704999991, 2252560.4778999984 794799.2252999991, 2252568.6569000036 794795.8220999986, 2252569.238499999 794766.0821000002, 2252572.6691000015 794752.3988999985, 2252577.8191 794744.0863000005, 2252582.8960999995 794732.0291000009, 2252597.7123000026 794711.5661000013, 2252606.9570999965 794702.4431000017, 2252610.227499999 794696.8225000016, 2252611.899099998 794689.7851000018, 2252613.2622999996 794679.492899999, 2252616.6504999995 794673.6308999993, 2252618.478100002 794668.2793000005, 2252615.852300003 794657.9488999993, 2252620.3584999964 794653.631099999, 2252634.1992999986 794650.6981000006, 2252639.557099998 794646.7263000011, 2252644.3007000014 794642.1616999991, 2252647.6988999993 794636.7798999995, 2252653.967699997 794635.930300001, 2252659.6040999964 794633.7639000006, 2252663.757299997 794628.4646999985, 2252649.5173000023 794629.0210999995, 2252617.3052999973 794607.5302999988, 2252602.7973000035 794600.3425000012, 2252575.1670999974 794597.2098999992, 2252566.2321000025 794596.1963, 2252540.220899999 794591.0573000014, 2252530.751500003 794590.7270999998, 2252521.508100003 794591.9547000006, 2252502.218699999 794598.0716999993, 2252491.1050999984 794596.4334999993, 2252480.2212999985 794592.1887000017, 2252464.017099999 794580.6526999995, 2252450.4356999993 794576.3827, 2252441.8738999963 794572.7292999998, 2252429.3242999986 794541.2870999984, 2252407.6369000003 794498.7402999997, 2252396.046099998 794482.3392999992, 2252362.774899997 794454.5111000016, 2252351.6783000007 794402.8841000013, 2252318.8671000004 794407.5584999993, 2252301.622299999 794409.8555000015, 2252274.7183 794404.0656999983, 2252269.728100002 794369.6633000001, 2252265.035099998 794345.6143000014, 2252262.9287 794334.5894999988, 2252268.013899997 794285.5617000014, 2252261.365500003 794246.3951000012, 2252247.148699999 794180.6658999994, 2252223.336599998 794082.7080000006, 2252141.914300002 794101.4202999994, 2252130.654299997 794099.8354999982, 2252148.121100001 794201.0560999997, 2252048.6882999986 794215.6968999989, 2251957.376500003 794232.2430999987, 2251936.6142999977 794139.9158999994, 2251841.3937000036 794157.8137000017, 2251820.092699997 794061.5687000006, 2251814.7651000023 794052.8057000004, 2251788.4272999987 794021.7644999996, 2251763.467299998 793997.7758999988, 2251739.955799997 793989.4486000016, 2251746.9104999974 794001.5881000012, 2251747.342699997 794002.3418999985, 2251742.2819000036 794023.4952999987, 2251732.800499998 794040.8519000001, 2251721.5012999997 794047.7910999991, 2251692.1296999976 794051.9794999994, 2251670.7611000016 794055.5841000006, 2251650.1459000036 794066.2892999984, 2251632.875699997 794078.2619000003, 2251617.6965000033 794094.1779000014, 2251608.3220999986 794115.5879000016, 2251607.1401000023 794143.7569000013, 2251605.750500001 794176.8995000012, 2251605.403499998 794210.4312999994, 2251605.1150999963 794238.3005000018, 2251595.746299997 794263.7344999984, 2251586.629900001 794276.2870999984, 2251571.4148999974 794283.9879000001, 2251548.529100001 794286.3313000016, 2251510.177699998 794274.8913000003, 2251487.1713000014 794279.0080999993, 2251453.864699997 794298.2945000008, 2251417.508100003 794314.0954999998, 2251391.6812999994 794313.8914999999, 2251355.668700002 794304.5667000003, 2251349.786700003 794303.0428999998, 2251335.720700003 794299.4002999999, 2251325.107900001 794296.6537000015, 2251304.6696999967 794291.3607000001, 2251278.0781000033 794286.0324999988, 2251256.836099997 794281.7765000015, 2251233.5596999973 794277.1125000007, 2251214.609099999 794273.3145000003, 2251205.559299998 794272.0949000008, 2251198.3439000025 794271.1231000014, 2251180.6394999996 794270.3214999996, 2251156.646499999 794269.2351000011, 2251128.9826999977 794270.4114999995, 2251079.9891000018 794283.7985000014, 2251074.052699998 794288.054299999, 2251057.956699997 794299.5940999985, 2251064.8561000004 794629.3051000014, 2251096.159699999 794636.9745000005, 2251158.302699998 794658.8363000005, 2251245.490699999 794698.6882999986, 2251348.4998999983 794758.2547000013, 2251392.388700001 794792.8123000003, 2251416.1706999987 794824.6942999996, 2251453.4023 794911.7776999995, 2251472.373300001 794954.8713000007, 2251505.991899997 795031.2212999985, 2251563.1391000003 795138.2283000015, 2251639.840300001 795277.4598999992, 2251662.725900002 795304.4660999998, 2251741.4447000027 795373.2685000002, 2251800.5086999983 795404.697900001, 2251881.8708999977 795433.9620999992, 2251966.3543 795447.7133000009, 2252023.114500001 795450.0034999996, 2252049.6471000016 795450.3073000014, 2252055.375500001 795450.3731000014, 2252085.121299997 795450.7111000009, 2252126.7007 795451.1856999993, 2252186.413900003 795451.8663000017, 2252261.772699997 795459.1339000016, 2252318.999300003 795464.6506999992, 2252331.1881000027 795467.0582999997, 2252335.7233000025 795445.3852999993, 2252345.011500001 795438.4290999994, 2252367.6215000004 795434.7364999987, 2252378.134300001 795415.3955000006, 2252392.2048999965 795411.873300001, 2252420.362499997 795395.6563000008))</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1022,6 +1082,11 @@
       <c r="L13" t="n">
         <v>5.301672730330149</v>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>POLYGON ((2261221.7731000036 785673.4002999999, 2260792.607900001 785782.373300001, 2260724.1965000033 785807.1070999987, 2260691.9767000005 785815.7353000008, 2260644.3198999986 785824.7899000011, 2260618.838299997 785824.1766999997, 2260607.2211000025 785823.8975000009, 2260600.774700001 785823.7417000011, 2260554.712099999 785815.9593000002, 2260532.3257 785812.5273000002, 2260423.5143000036 785796.1761000007, 2260402.0500999987 785792.8964999989, 2260365.2509000003 785786.4351000004, 2260231.645499997 785766.1253000014, 2260180.9902999997 785758.4272999987, 2260151.6361000016 785754.825100001, 2260090.5449 785761.9353, 2259976.8686999977 785781.3849, 2259964.721500002 785783.384300001, 2259947.1172999963 785785.7401, 2259893.353100002 785776.6356999986, 2259843.3293000013 785748.4800999984, 2259767.0837000012 785704.4752999991, 2259725.284500003 785686.5225000009, 2259703.208899997 785680.680300001, 2259689.4679000005 785677.0441000015, 2259647.026900001 785673.7677999996, 2259634.533500001 785673.2162999995, 2259595.2289000005 785672.0766999982, 2259516.3762999997 785669.4792999998, 2259501.9155 785710.3944999985, 2259497.465999998 785719.0168000013, 2259493.644299999 785763.2606000006, 2259489.9201999977 785801.1273999996, 2259489.2924999967 785809.9536000006, 2259488.9221 785815.1656000018, 2259474.085199997 785846.1959000006, 2259471.5588999987 785851.618999999, 2259471.1055999994 785865.8418000005, 2259472.6965000033 785876.4184000008, 2259479.5617000014 785897.6673000008, 2259479.8562999964 785918.874400001, 2259463.903800003 786010.4235000014, 2259458.7471999973 786047.6757999994, 2259458.3082000017 786084.4849000014, 2259461.428199999 786098.6882000007, 2259443.223099999 786113.6350999996, 2259432.9390999973 786176.6127999984, 2259443.697499998 786183.2283999994, 2259473.589400001 786189.2380000018, 2259566.3945999965 786197.2809999995, 2259622.6806000024 786199.4569000006, 2259667.625699997 786219.0500000007, 2259726.1849000007 786246.9417000003, 2259839.352300003 786281.0172999986, 2259876.588200003 786323.2210999988, 2259937.098700002 786358.6187999994, 2259975.6602 786344.2159000002, 2260025.6115999967 786330.1508000009, 2260078.057400003 786325.9180000015, 2260118.5364999995 786344.7983000018, 2260154.5842000023 786327.5700999983, 2260223.9657000005 786322.8770000003, 2260247.2452000007 786329.0089000016, 2260306.7775000036 786327.8181000017, 2260317.0901999995 786347.4343000017, 2260360.3434000015 786359.7818000019, 2260389.9087999985 786349.2802999988, 2260433.3615000024 786371.5366000012, 2260440.1032000035 786379.5111000016, 2260448.2951000035 786384.2498999983, 2260614.728500001 786427.0333999991, 2261581.281000003 786675.5449000001, 2261367.9014 786132.0115999989, 2261349.840499997 786096.8641999997, 2261332.168399997 786056.245000001, 2261337.038900003 786048.2848000005, 2261321.300999999 786017, 2261309.151900001 786007.2080000006, 2261244.153300002 786005.3460999988, 2261206.7035000026 786007.4640000015, 2261195.878399998 785941.3037, 2261241.6921999976 785911.9926999994, 2261210.686499998 785811.6273999996, 2261228.1141000018 785803.2813999988, 2261281.7584000006 785767.0753999986, 2261249.5935999975 785692.6933000013, 2261221.7731000036 785673.4002999999))</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1066,6 +1131,11 @@
       <c r="L14" t="n">
         <v>4.597079130540562</v>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>POLYGON ((2258714.402400002 790139.5837000012, 2258731.272699997 790117.6939000003, 2258770.3822000027 790066.9461999983, 2258864.1137000024 789942.9569999985, 2258896.104699999 789895.1572999991, 2258929.336199999 789887.8346000016, 2258883.5873000026 789884.0340999998, 2258775.1925000027 789861.2027000003, 2258515.7457000017 789806.7710999995, 2258462.8681000024 789796.3993000016, 2258322.7534999996 789767.0423000008, 2258324.6702999994 789757.0150999986, 2258378.3659000024 789747.8828999996, 2258489.2075000033 789716.5300999992, 2258436.5143000036 789705.1838999987, 2258510.7421000004 789672.5549000017, 2258625.4070999995 789597.5240999982, 2258640.6809 789582.8256999999, 2258663.1372999996 789555.7685000002, 2258683.4931000024 789526.3011000007, 2258769.2004999965 789341.4864999987, 2258707.6369000003 789323.5524999984, 2258727.4404999986 789229.8590999991, 2258835.068599999 788720.7168000005, 2258866.2097000033 788573.4015999995, 2258831.106899999 788565.555399999, 2258832.3637000024 788556.7060999982, 2258791.9849999994 788543.8986999989, 2258796.5385000035 788516.2877999991, 2258821.3625999987 788456.3968000002, 2258838.445600003 788324.9466999993, 2258853.240500003 788300.3247000016, 2258853.525399998 788268.1559999995, 2258888.939199999 788133.0471000001, 2258655.1985 787948.3425999992, 2258629.454099998 787990.0767999999, 2258551.8128999993 788101.6398000009, 2258530.4472000003 788132.3487000018, 2258463.0669 788234.7303999998, 2258452.2311000004 788251.371199999, 2258448.951899998 788274.9321000017, 2258391.908200003 788471.4118000008, 2258372.591600001 788543.0592, 2258362.778499998 788574.3990000002, 2258345.1335999966 788658.3958999999, 2258362.3901999965 788667.4373999983, 2258370.0358999968 788677.1631999984, 2258366.3095000014 788687.1112999991, 2258354.5480000004 788692.4596000016, 2258343.3000999987 788723.0095000006, 2258316.7364000008 788716.9677999988, 2258292.5138000026 788789.6469999999, 2258235.4306000024 788963.0152000003, 2258222.6915000007 789000.2848000005, 2258172.2726000026 789151.2050999999, 2258153.3994999975 789218.1097999997, 2258143.5018000007 789266.4796999991, 2258131.6686000004 789316.9723999985, 2258122.222099997 789375.050999999, 2258087.544399999 789452.2446000017, 2258085.4368999973 789455.0359999985, 2258043.411799997 789520.4992999993, 2258026.4614999965 789512.8359999992, 2258008.337700002 789540.3977000006, 2257984.9016999975 789576.9204000011, 2257964.2591999993 789610.3546999991, 2257943.329099998 789641.9558999985, 2257946.750699997 789654.616799999, 2257938.862400003 789673.6625000015, 2257927.086599998 789682.1251000017, 2257926.7742 789682.3493999988, 2257924.781999998 789683.7804000005, 2257923.766099997 789685.5062000006, 2257914.9186000004 789700.5293999985, 2258431.718999997 789807.621100001, 2258431.329999998 789808.2413000017, 2258425.4716000035 789817.5984999985, 2258419.2567000017 789826.8586000018, 2258404.865699999 789839.0251000002, 2258387.0034999996 789860.3935000002, 2258380.112300001 789881.5447999984, 2258368.3389 789896.7945999987, 2258357.350100003 789896.1008000001, 2258341.918300003 789901.8922999986, 2258328.6281000003 789923.1695999987, 2258318.496799998 789919.7188999988, 2258302.7925999984 789911.8121999986, 2258285.442400001 789913.0736999996, 2258274.728100002 789926.0780000016, 2258276.0625 789947.064199999, 2258276.4070999995 789947.8647999987, 2258290.529299997 789983.3079000004, 2258263.1567 790033.1959000006, 2258215.527099997 790075.261500001, 2258177.3716999963 790087.9048999995, 2258163.0744000003 790104.634300001, 2258156.8378000036 790112.9794000015, 2258152.506099999 790124.9459000006, 2258152.913999997 790125.6968999989, 2258170.115000002 790156.8541000001, 2258160.112499997 790170.627799999, 2258147.559299998 790185.9290000014, 2258138.246100001 790196.6579999998, 2258148.340499997 790203.3790999986, 2258435.3668000028 790394.4477000013, 2258495.303000003 790434.3480999991, 2258535.082800001 790381.3761, 2258538.4223999977 790376.9294999987, 2258620.662900001 790265.1462999992, 2258630.1783000007 790252.2122999988, 2258633.1076999977 790248.2305999994, 2258714.402400002 790139.5837000012))</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1110,6 +1180,11 @@
       <c r="L15" t="n">
         <v>4.458780753562017</v>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>POLYGON ((2254556.914499998 792576.0967999995, 2254548.7990000024 792557.872299999, 2254539.3233999982 792533.6152000017, 2254517.6426 792531.5592, 2254511.402800001 792529.6136000007, 2254500.642999999 792526.2586000003, 2254487.5511000007 792490.0390000008, 2254441.3915000036 792373.3770999983, 2254365.771300003 792175.8603999987, 2254327.5764999986 792072.4547000006, 2254315.3577999994 792044.1829000004, 2254304.851599999 792014.1306000017, 2254291.138899997 791940.7721999995, 2254275.6674999967 791866.3137999997, 2254265.594999999 791858.2721000016, 2254262.4482000023 791846.2102999985, 2254258.082199998 791815.2151000015, 2254254.6336999983 791804.4789999984, 2254246.9196000025 791798.2175999992, 2254236.7744999975 791797.1176999994, 2254233.3559999987 791776.5802999996, 2254233.0117999986 791758.7148000002, 2254237.2585000023 791754.4965999983, 2254248.2896 791749.6783999987, 2254214.7282999977 791740.7380999997, 2254185.6406000033 791730.6812999994, 2254190.1163000017 791711.681400001, 2254176.690700002 791691.5659000017, 2254157.6723999977 791666.9787000008, 2254136.4174999967 791661.3913000003, 2254126.3484999985 791677.0370999984, 2254121.874300003 791702.7402000017, 2254097.2594000027 791726.2102999985, 2254074.8853999972 791768.6755000018, 2254087.193599999 791773.1455999985, 2254078.2415999994 791788.7930999994, 2254016.711599998 791786.5584999993, 2253954.0627999976 791768.6766000018, 2253904.838799998 791751.9140000008, 2253849.694799997 791729.1017000005, 2253818.3709999993 791697.809799999, 2253797.1152999997 791663.1662000008, 2253781.4535000026 791632.9930000007, 2253743.4162999988 791624.0518999994, 2253713.2107999995 791597.2298000008, 2253702.0238000005 791574.8781999983, 2253713.2119999975 791568.1741999984, 2253681.8862999976 791546.9406000003, 2253658.3910000026 791517.8841000013, 2253649.4412999973 791462.0064000003, 2253659.5132 791417.3022999987, 2253676.769299999 791353.6994999982, 2253716.9266000018 791380.6623999998, 2253815.6718000025 791366.8520999998, 2253865.702399999 791302.4065000005, 2253842.0037999973 791299.118900001, 2253812.3796999976 791351.0700999983, 2253778.1488000005 791356.3310000002, 2253726.1428000033 791364.878899999, 2253685.3275000006 791335.9444000013, 2253668.213299997 791322.1334000006, 2253737.990199998 791228.0953000002, 2253771.359700002 791197.6920000017, 2253793.664499998 791219.0247999988, 2253810.273400001 791215.2303000018, 2253810.2731000036 791227.0808000006, 2253849.1849000007 791216.6534999982, 2253846.8106999993 791208.5932999998, 2253879.5565000027 791202.4323999994, 2253900.910099998 791209.0681000017, 2253906.128200002 791237.0357999988, 2253913.2480000034 791271.6424999982, 2253921.3145999983 791306.2468999997, 2253936.5024999976 791296.7664999999, 2253925.5868000016 791249.8348000012, 2253923.139799997 791201.7452000007, 2253936.7453999966 791201.7459000014, 2253954.8862000033 791204.7655999996, 2253966.9778999984 791192.6854999997, 2253965.465999998 791177.5843999982, 2253941.279799998 791170.0353000015, 2253921.628399998 791182.1152999997, 2253885.350900002 791173.0544000007, 2253901.976800002 791167.0148000009, 2253871.7470000014 791145.8742999993, 2253846.0495999977 791142.8546000011, 2253829.4201999977 791127.7544, 2253797.6765 791135.3037, 2253759.8852000013 791138.3247999996, 2253728.1432000026 791127.7545999996, 2253681.2804000005 791111.1427000016, 2253635.9343999997 791127.752799999, 2253595.1216999963 791130.7740999982, 2253561.8646000028 791117.1832000017, 2253542.212700002 791094.5340000018, 2253498.3778000027 791062.8233999982, 2253454.539300002 791038.6622000001, 2253442.4482000023 791008.4604000002, 2253451.516900003 790976.7503999993, 2253433.3779999986 790952.5890000015, 2253433.3770999983 790907.2897000015, 2253439.423600003 790881.617800001, 2253417.8904 790855.0835999995, 2253417.8894999996 790833.943500001, 2253423.9375 790806.7630999982, 2253458.7051 790806.7624000013, 2253479.867399998 790781.0925000012, 2253464.7502999976 790772.0317000002, 2253434.518299997 790743.3418000005, 2253407.3087000027 790714.6510000005, 2253425.4481000006 790704.0813999996, 2253395.218000002 790699.5498000011, 2253402.774899997 790664.819699999, 2253420.9135999978 790639.1484999992, 2253401.2621000037 790630.0890999995, 2253414.8668000028 790610.4587999992, 2253416.3805000037 790566.6684999987, 2253390.6812999994 790562.1387999989, 2253378.5885000005 790539.4873000011, 2253402.7744000033 790545.5280999988, 2253407.3105000034 790525.8962000012, 2253389.170900002 790522.8770999983, 2253361.960500002 790488.1455999985, 2253330.2163999975 790479.0868000016, 2253299.9839999974 790470.0254000016, 2253284.8671000004 790441.3341999985, 2253298.473200001 790417.1726999991, 2253310.5649000034 790380.934700001, 2253284.867700003 790400.5645999983, 2253295.690899998 790348.0397999994, 2253250.123300001 790349.8368999995, 2253213.550999999 790373.7952000014, 2253194.963299997 790401.3469999991, 2253155.9931999967 790421.7104999982, 2253107.4289999977 790421.1110000014, 2253069.054899998 790412.1273000017, 2253020.4905999973 790403.1418999992, 2252998.307400003 790407.3368000016, 2252977.3228999972 790421.1108000018, 2252946.1423999965 790433.6895999983, 2252929.3574 790425.9012000002, 2252917.9658999965 790412.1273000017, 2252912.5689999983 790401.3458999991, 2252925.759499997 790386.372299999, 2252952.739500001 790386.9708000012, 2252962.9311999977 790379.7822999991, 2252950.3423999995 790361.8170999996, 2252922.1608999968 790360.6176000014, 2252903.5749000013 790365.4096000008, 2252887.9864000008 790378.5861000009, 2252892.1850000024 790393.5604000017, 2252889.786799997 790407.9351000004, 2252871.958300002 790405.5320999995, 2252853.7826000005 790420.6616000012, 2252871.958899997 790429.7401, 2252884.077200003 790440.3348999992, 2252873.474799998 790452.4367999993, 2252882.5627999976 790469.0810999982, 2252905.2809000015 790460.002799999, 2252911.3417000026 790469.0802999996, 2252909.8255999982 790487.2382000014, 2252884.077200003 790497.8295999989, 2252853.7826000005 790519.0131999999, 2252835.606700003 790535.6579000019, 2252800.7683999985 790534.1449999996, 2252794.711099997 790550.7895000018, 2252799.2537999973 790568.9441, 2252820.458899997 790591.6431999989, 2252828.034699999 790614.3407999985, 2252826.5190000013 790640.0623000003, 2252846.211099997 790658.2197999991, 2252862.8729000017 790677.8892999999, 2252884.077299997 790711.1768000014, 2252900.7404000014 790738.4120000005, 2252920.4306000024 790745.9781000018, 2252923.468500003 790758.8145999983, 2252897.716799997 790763.3542000018, 2252879.5414000005 790783.0247000009, 2252867.4250999987 790814.7996000014, 2252840.1630999967 790822.3645000011, 2252814.410099998 790832.9560000002, 2252787.146499999 790848.0879999995, 2252765.9417999983 790848.0872999988, 2252753.8225999996 790870.7846999988, 2252761.3950999975 790884.4013999999, 2252788.660400003 790884.4019999988, 2252812.8957 790904.074000001, 2252814.4102 790923.7435999997, 2252806.8352999985 790943.4123000018, 2252782.604500003 790955.5183000006, 2252743.2217999995 790961.5707999989, 2252711.412600003 790972.1614999995, 2252696.2665000036 790991.8330999985, 2252691.722400002 791022.0945000015, 2252700.8093999997 791061.4356999993, 2252728.074500002 791079.5912000015, 2252749.281000003 791088.6704999991, 2252773.5130999982 791088.6700000018, 2252793.204599999 791097.7487999983, 2252821.9844999984 791106.8273999989, 2252846.217600003 791102.2894000001, 2252862.8800000027 791085.6442999989, 2252865.910099998 791115.9059000015, 2252859.8511999995 791153.7346000001, 2252871.969499998 791174.9184999987, 2252908.3215000033 791183.9956, 2252914.505599998 791209.2349000014, 2252941.7704000026 791244.0362000018, 2252985.6950000003 791277.3249999993, 2253017.5023000017 791289.4299000017, 2253055.3699999973 791289.430300001, 2253079.6071999967 791296.9948000014, 2253097.782300003 791289.430300001, 2253108.382600002 791304.5588999987, 2253084.150600001 791306.075100001, 2253085.6636999995 791351.4664999992, 2253099.295400001 791389.2954000011, 2253123.530699998 791411.9902999997, 2253167.457699999 791419.5555999987, 2253200.780199997 791416.5300000012, 2253256.250699997 791433.0055, 2253256.8225999996 791433.1754000001, 2253249.7874 791405.1592999995, 2253253.5725999996 791388.1669999994, 2253267.6602 791368.7142999992, 2253280.663999997 791350.6455000006, 2253288.546400003 791340.1710000001, 2253305.1137999967 791343.0170000009, 2253322.9419 791370.8341000006, 2253330.1476000026 791376.5931999981, 2253361.065200001 791380.7468000017, 2253374.0041000023 791383.3839000016, 2253391.150399998 791394.4620000012, 2253396.8017999977 791398.0036999993, 2253408.331699997 791415.7489, 2253409.713200003 791430.5527999997, 2253427.5812000036 791442.2430999987, 2253427.4758 791454.9013999999, 2253427.029100001 791468.6486000009, 2253433.892999999 791486.2305999994, 2253440.929700002 791493.9781000018, 2253492.5578000024 791523.7408000007, 2253533.6739000008 791548.9371999986, 2253548.503700003 791559.9241000004, 2253554.770999998 791577.4364, 2253559.706799999 791625.7620999999, 2253569.309600003 791632.8403999992, 2253609.2639999986 791621.9129000008, 2253622.722400002 791625.2584000006, 2253630.053000003 791629.813000001, 2253649.534400001 791662.6853, 2253660.5552999973 791670.7829000019, 2253678.0288999975 791675.8539999984, 2253697.3989999965 791675.7578999996, 2253717.521399997 791677.9530999996, 2253727.6177999973 791688.9646000005, 2253727.567599997 791709.5707999989, 2253720.947999999 791722.3599000014, 2253708.7229999974 791731.3194000013, 2253704.2223000005 791736.4342, 2253704.215099998 791754.1519000009, 2253713.157300003 791767.5687999986, 2253712.1094999984 791775.0036000013, 2253704.4552000016 791784.1587999985, 2253702.1081999987 791793.2846000008, 2253704.0732000023 791801.1625999995, 2253715.8263000026 791805.9651000015, 2253729.891599998 791807.1517999992, 2253740.0683000013 791805.4932999983, 2253751.830499999 791800.2034000009, 2253782.3074999973 791783.0075999983, 2253797.1322000027 791781.8374999985, 2253808.050999999 791790.8324000016, 2253808.427000001 791807.0177000016, 2253811.297700003 791817.6416999996, 2253815.6427000016 791823.8685000017, 2253852.225400001 791825.3033000007, 2253860.643100001 791829.8346000016, 2253863.8323 791841.4505999982, 2253862.9306000024 791853.6537000015, 2253865.9125000015 791863.9600000009, 2253871.1735000014 791867.5899999999, 2253881.0480000004 791869.2208000012, 2253901.951399997 791868.4162999988, 2253923.1702999994 791870.4028000012, 2253918.6423999965 791906.4089000002, 2253920.033500001 791921.5681999996, 2253948.2603999972 791957.5203000009, 2253951.865500003 791972.754900001, 2253950.7326999977 792008.4547000006, 2253938.0720999986 792026.7855999991, 2253915.106200002 792036.6493000016, 2253891.532200001 792034.2298000008, 2253866.5832 792017.3773999996, 2253839.8369999975 791983.2014000006, 2253828.849600002 791958.8355999999, 2253815.1743 791944.6468999982, 2253793.3792999983 791940.7441000007, 2253777.2651999965 791948.364599999, 2253761.096000001 791973.2142999992, 2253758.6701999977 791987.5372000001, 2253759.8574 791998.0527999997, 2253773.175300002 792008.8724999987, 2253768.2493999973 792022.9679000005, 2253763.009499997 792027.6763000004, 2253722.204099998 792034.0740999989, 2253715.3704999983 792035.6966999993, 2253710.1448 792042.8176999986, 2253708.1890999973 792057.6363999993, 2253715.2249 792070.2329999991, 2253756.041100003 792125.0135999992, 2253761.4430000037 792140.9818000011, 2253778.5650999993 792164.3161999993, 2253786.6247000024 792182.7135999985, 2253810.715099998 792188.9906000011, 2253822.4266000018 792194.8649999984, 2253855.357000001 792226.2531000003, 2253864.845399998 792246.0106999986, 2253866.664999999 792262.2705999985, 2253861.5711999983 792277.9103000015, 2253851.2567000017 792293.1968999989, 2253831.2048999965 792304.6385999992, 2253803.4033999965 792306.2296000011, 2253790.9377999976 792308.8619000018, 2253759.3442 792326.2016999982, 2253745.1719999984 792332.5084000006, 2253725.0500999987 792345.5625, 2253818.4147000015 792438.0544999987, 2254065.902999997 792662.2897999994, 2254185.5759000033 792774.4189999998, 2254200.790600002 792791.2738999985, 2254338.284000002 792732.7098000012, 2254349.4926000014 792727.8104000017, 2254350.9246999994 792727.1840000004, 2254372.411600001 792718.0144000016, 2254408.4811000004 792702.4813000001, 2254496.6262999997 792640.3277999982, 2254556.914499998 792576.0967999995))</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1154,6 +1229,11 @@
       <c r="L16" t="n">
         <v>4.249138638896711</v>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>POLYGON ((2248906.3109000027 793893.696800001, 2248921.259999998 793909.6264000013, 2248975.046400003 793966.9474, 2248983.536600001 793975.9935000017, 2249012.2378999963 794009.6717000008, 2249046.1846999973 794049.500599999, 2249062.6986000016 794066.9490999989, 2249076.3202000037 794083.1019000001, 2249083.697999999 794091.8484999985, 2249110.9162999988 794113.9796999991, 2249180.1969000027 794162.8713000007, 2249189.9849999994 794165.7305999994, 2249201.3762999997 794169.0579000004, 2249209.640900001 794160.8643999994, 2249224.090499997 794146.9756999984, 2249226.1526999995 794144.5031000003, 2249229.181400001 794141.2578999996, 2249239.527900003 794129.6328999996, 2249260.4431999996 794107.3665000014, 2249270.430399999 794097.1609999985, 2249264.1717000008 794086.5282000005, 2249257.678199999 794048.693, 2249261.998999998 794041.7358000018, 2249286.6633 794000.4748999998, 2249290.488300003 793992.5463999994, 2249295.275700003 793979.3200999983, 2249270.193599999 793967.0219999999, 2249260.077799998 793975.1856000014, 2249254.7942999974 793974.1339999996, 2249271.820299998 793955.4827000014, 2249303.4004999995 793920.1261, 2249262.201700002 793878.3832999989, 2249236.264700003 793851.6433000006, 2249161.5771000013 793790.9679999985, 2249132.412100002 793776.9481000006, 2249101.165100001 793752.3870999999, 2249094.737800002 793747.3339000009, 2249078.126199998 793734.179299999, 2249044.6548999995 793707.6722999997, 2249056.6125999987 793688.6048999988, 2249072.350299999 793663.5025000013, 2249082.8012999967 793648.3693999983, 2249093.214299999 793633.2855999991, 2249180.1202000007 793507.4270000011, 2249212.8982999995 793469.1468999982, 2249285.4812999964 793435.5375000015, 2249348.2261999995 793426.7137000002, 2249357.5056999996 793380.2846000008, 2249362.934600003 793358.6030000001, 2249211.463100001 793302.261500001, 2249104.910700001 793260.7245999984, 2248973.674800001 793193.2270999998, 2248873.6224000007 793134.8156000003, 2248755.3772 793050.443599999, 2248650.9980000034 792969.2707999982, 2248569.1369000003 792886.1975000016, 2248461.2881999984 792764.183600001, 2248406.7128000036 792683.7049000002, 2248349.3950999975 792594.632199999, 2248307.815700002 792524.5379000008, 2248274.033500001 792462.2344000004, 2248250.643299997 792388.2457999997, 2248228.5544999987 792302.5771999992, 2248222.0578000024 792215.6085000001, 2248231.1872999966 792161.561900001, 2248253.2761999965 792068.1030000001, 2248272.7673000023 792007.0960000008, 2248257.9565000013 791956.4699999988, 2248255.5040000007 791947.7327999994, 2248237.784699999 791932.2186000012, 2248223.8632000014 791917.3852999993, 2248212.9312999994 791907.556400001, 2248196.228699997 791907.6458999999, 2248186.706100002 791913.5995999984, 2248196.348099999 791977.0282000005, 2248199.014200002 792010.0181000009, 2248191.972000003 792049.2817000002, 2248183.0451000035 792092.0929999985, 2248175.9228999987 792127.4453999996, 2248171.976599999 792157.7928000018, 2248169.957199998 792187.175999999, 2248169.8167999983 792212.6063000001, 2248171.647699997 792238.6517999992, 2248175.4966999963 792268.3614000008, 2248180.603100002 792294.9921000004, 2248182.4069000036 792319.7316999994, 2248180.977300003 792345.8416999988, 2248179.9729999974 792360.8583000004, 2248183.722000003 792384.9083000012, 2248188.725400001 792406.3233000003, 2248197.147399999 792435.4941999987, 2248206.781199999 792457.9813000001, 2248216.9891000018 792478.6411999986, 2248221.3127000034 792498.7666999996, 2248228.246100001 792518.8407999985, 2248230.0649000034 792544.2316000015, 2248229.3508 792573.5872999988, 2248228.755900003 792608.8082000017, 2248227.2287999988 792632.1667000018, 2248219.0327999964 792646.6763999984, 2248203.8161000013 792669.1519000009, 2248194.3147 792683.6856000014, 2248193.2454999983 792695.4444999993, 2248198.0116000026 792705.1290999986, 2248207.661799997 792718.3739, 2248217.652400002 792739.5463999994, 2248217.3008999974 792754.550999999, 2248210.5044 792773.5936999992, 2248193.0845 792816.3280000016, 2248176.2502000034 792855.7872000001, 2248172.8121000007 792898.8685000017, 2248172.4896000028 792929.1561999992, 2248191.6717000008 792962.9626999982, 2248193.3796000034 792987.0555000007, 2248175.554700002 793039.1356000006, 2248213.360799998 793071.8973000012, 2248256.8849000037 793111.9655000009, 2248268.0539000034 793123.2800000012, 2248290.345899999 793145.8568000011, 2248343.3271000013 793205.439100001, 2248403.1072999984 793277.3731999993, 2248412.6961999983 793313.6085000001, 2248427.6986000016 793338.4353, 2248436.342500001 793349.6009999998, 2248418.523199998 793374.2762999982, 2248408.3982999995 793369.7721999995, 2248401.792199999 793372.9437000006, 2248384.9592000023 793394.1438999996, 2248380.8171999976 793399.8594000004, 2248374.9362000003 793407.9761000015, 2248357.8630999997 793431.1272, 2248349.0797000006 793437.4239000008, 2248350.322300002 793443.6213999987, 2248343.4516000003 793443.9659999982, 2248345.5561000034 793464.8649999984, 2248345.7387999967 793473.9657999985, 2248354.386699997 793500.3143999986, 2248382.842299998 793521.1097000018, 2248442.0392000005 793556.7795000002, 2248446.7629999965 793559.6257999986, 2248441.3894999996 793567.2060999982, 2248439.4661 793570.0111000016, 2248412.593500003 793609.2377000004, 2248359.7531000003 793687.6737000011, 2248348.0420999974 793707.7589999996, 2248335.9157999977 793723.7256000005, 2248328.5500999987 793734.8751000017, 2248330.441200003 793762.4111000001, 2248332.9324999973 793798.6554999985, 2248336.103699997 793832.9461000003, 2248342.0157999992 793890.4096000008, 2248363.159699999 794071.9519000016, 2248374.399899997 794194.8581999987, 2248379.5408999994 794259.5144999996, 2248443.5113999993 794262.5784000009, 2248491.3999999985 794257.3044999987, 2248561.5684999973 794217.0236000009, 2248632.182400003 794176.4882000014, 2248708.0200999975 794134.6026000008, 2248747.8188999966 794105.0740999989, 2248778.681599997 794073.6708000004, 2248847.2480000034 793977.1730000004, 2248906.3109000027 793893.696800001))</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1198,6 +1278,11 @@
       <c r="L17" t="n">
         <v>5</v>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>POLYGON ((2285844.5200999975 822384.5843000002, 2285948.7599000037 822363.2732999995, 2286057.605300002 822341.0207000002, 2286057.4355000034 822340.0086999983, 2286043.9679000005 822259.7083999999, 2286043.962899998 822259.6783999987, 2286043.9619000033 822259.6726999991, 2286043.9461999983 822259.677099999, 2286043.9426999986 822259.6788000017, 2286043.8434000015 822259.7102000006, 2285964.6252000034 822284.7787999995, 2285964.5304000005 822284.8088000007, 2285964.512500003 822284.8145000003, 2285964.510300003 822284.8082999997, 2285964.500500001 822284.7806000002, 2285956.3056999967 822261.3247999996, 2285956.6136000007 822261.0784000009, 2286020.477300003 822209.9901, 2286144.6812999994 822107.6704000011, 2286143.9368999973 822107.2531999983, 2286129.1904999986 822098.9855999984, 2286129.173299998 822098.9825000018, 2286109.1877999976 822095.3953999989, 2286109.1708000004 822095.3924000002, 2286109.145300001 822095.3878999986, 2286109.137500003 822095.386500001, 2286109.1252999976 822095.3881999999, 2286109.0631000027 822095.3973000012, 2286082.0694999993 822099.3165999986, 2286080.009800002 822099.6136999987, 2286079.9284999967 822099.625500001, 2286079.9135000035 822099.627700001, 2286079.9087999985 822099.6257000007, 2286079.903499998 822099.6235000007, 2286079.8850999996 822099.6156000011, 2286018.2488999963 822073.431400001, 2285985.203900002 822052.7743999995, 2285985.186800003 822052.7723000012, 2285963.5112000033 822050.5408999994, 2285963.4912 822050.5414999984, 2285963.4059000015 822050.5430000015, 2285963.386500001 822050.5434000008, 2285963.3664000034 822050.5438000001, 2285932.119099997 822051.1226999983, 2285932.0996999964 822051.1231000014, 2285932.079599999 822051.123399999, 2285931.9944999963 822051.1248000003, 2285931.975100003 822051.1251000017, 2285919.1242000014 822050.1612000018, 2285851.2606000006 822045.0639000013, 2285851.2434 822045.0610000007, 2285828.9892999977 822041.4312999994, 2285809.963200003 822022.4946000017, 2285764.3257 821971.4547000006, 2285709.7479000017 821933.0496000014, 2285658.1401000023 821900.1077000014, 2285630.139200002 821877.8128000014, 2285630.1221999973 821877.8092, 2285587.351599999 821868.0122999996, 2285587.3347999975 821868.0084000006, 2285587.321800001 821868.0055, 2285587.316399999 821868.0042000003, 2285587.3018999994 821868.0056000017, 2285587.226999998 821868.0139000006, 2285538.0481999964 821873.4197000004, 2285537.976800002 821873.4274999984, 2285537.963600002 821873.4290000014, 2285537.9569000006 821873.4277999997, 2285537.9464000016 821873.4257999994, 2285537.9399000034 821873.4246000014, 2285537.9236999974 821873.4215000011, 2285537.906499997 821873.4182999991, 2285509.5757 821868.0861999989, 2285509.559100002 821868.0822999999, 2285484.4958000034 821861.5531000011, 2285464.0967999995 821845.8460000008, 2285442.8489999995 821819.0692000017, 2285428.173100002 821801.0234000012, 2285424.037299998 821793.7954000011, 2285424.0204000026 821793.7917000018, 2285420.8805000037 821793.0406000018, 2285420.8636000007 821793.0366000012, 2285399.153499998 821787.7135000005, 2285399.1367999986 821787.7093999982, 2285399.1240999997 821787.7063000016, 2285399.1186999977 821787.7049999982, 2285399.104000002 821787.7063000016, 2285399.028800003 821787.7148999982, 2285377.8095000014 821790.1418000013, 2285365.663900003 821794.9351999983, 2285353.2465000004 821799.623300001, 2285345.866899997 821801.0621999986, 2285340.9333000034 821801.6807000004, 2285340.8796000034 821801.6876000017, 2285340.8693000004 821801.6889000013, 2285340.8596 821801.6878999993, 2285340.8522000015 821801.6867999993, 2285340.842500001 821801.6856999993, 2285340.809100002 821801.6821999997, 2285340.792000003 821801.680399999, 2285296.639399998 821797.0980999991, 2285296.634999998 821797.0965000018, 2285282.4239000008 821790.6218000017, 2285282.407300003 821790.617899999, 2285281.6838999987 821790.4266000018, 2285281.667199999 821790.4222000018, 2285269.399099998 821787.1774999984, 2285254.6274999976 821780.5727000013, 2285254.6103999987 821780.5703999996, 2285241.3646000028 821778.9461999983, 2285241.3477 821778.9428999983, 2285224.6335000023 821775.2391000018, 2285224.6136000007 821775.2386999987, 2285217.7808 821775.1306999996, 2285217.7608999982 821775.1305, 2285217.7409999967 821775.1301999986, 2285216.4349000007 821775.1094999984, 2285216.414999999 821775.1092999987, 2285216.3950999975 821775.1090000011, 2285215.2969999984 821775.0916999988, 2285215.277099997 821775.0916000009, 2285215.2572000027 821775.0914000012, 2285215.2058999985 821775.0901000015, 2285215.152599998 821775.0929999985, 2285204.3989999965 821775.6834999993, 2285204.3791000023 821775.6845999993, 2285204.3571000025 821775.685800001, 2285204.337200001 821775.686900001, 2285196.0644000024 821776.1414999999, 2285196.0446000025 821776.1424999982, 2285196.0248000026 821776.1442000009, 2285171.1753999963 821778.6521999985, 2285168.9974000007 821778.8720000014, 2285168.6763999984 821778.9043000005, 2285166.9736 821779.0760999992, 2285166.8726999983 821779.0863000005, 2285166.8618 821779.0824999996, 2285166.849100001 821779.0780000016, 2285152.9767000005 821774.1464000009, 2285141.624499999 821764.4662000015, 2285124.213299997 821739.9400000013, 2285113.2912999988 821735.8363000005, 2285111.080499999 821735.0056000017, 2285110.5912000015 821734.821800001, 2285110.5601999983 821734.8101000004, 2285110.5543000028 821734.8079000004, 2285110.548600003 821734.8088999987, 2285110.5402999967 821734.8104000017, 2285110.4667000026 821734.8236000016, 2285096.1247000024 821737.3922000006, 2285083.5108999982 821743.6486000009, 2285075.700099997 821749.8099000007, 2285065.085699998 821759.9943000004, 2285042.075099997 821779.1330000013, 2285028.4258999974 821790.9924000017, 2285005.5706999972 821802.0185999982, 2284987.9015000015 821805.8947999999, 2284987.8814999983 821805.8957000002, 2284968.833999999 821806.9935999997, 2284968.8140999973 821806.9945, 2284934.105899997 821818.8739, 2284897.534500003 821829.1673999988, 2284889.3364999965 821844.1290999986, 2284887.2990999967 821863.5287999995, 2284880.7722999975 821877.1218999997, 2284869.8994999975 821888.3344999999, 2284857.6094999984 821898.7681999989, 2284855.7983999997 821902.4860999994, 2284855.3664999977 821903.3726999983, 2284855.3757999986 821903.3931999989, 2284855.4257000014 821903.5031000003, 2284875.609700002 821948.0055, 2284898.2430000007 822042.9593000002, 2284922.063699998 822029.8227000013, 2284939.4645000026 822016.3013000004, 2284954.0078999996 822014.8786999993, 2284960.580499999 822025.7034999989, 2285006.910700001 822061.4419, 2285038.2797000036 822091.4411000013, 2285107.461099997 822048.2597000003, 2285098.9910999984 822034.0399000011, 2285091.6340999976 821998.4798999988, 2285104.020499997 822000.5678999983, 2285110.612300001 821998.5428999998, 2285121.9789000005 821995.9836999997, 2285153.2124999985 821984.8841000013, 2285164.280100003 821983.9860999994, 2285176.173299998 821978.8407000005, 2285195.9316999987 821971.4114999995, 2285202.0561000034 821972.8891000003, 2285225.920900002 821985.0111000016, 2285230.6904999986 821997.5309000015, 2285232.3806999996 822002.6840999983, 2285234.4723000005 822009.0315000005, 2285243.770300001 822021.7514999993, 2285256.0210999995 822053.1185000017, 2285261.1662999988 822057.1856999993, 2285267.4975000024 822085.4483000003, 2285276.7123000026 822140.4891000018, 2285288.6525000036 822209.9510999992, 2285392.482500002 822190.7263000011, 2285417.3103 822183.3220999986, 2285435.456699997 822193.5962999985, 2285490.992899999 822189.0852999985, 2285513.7534999996 822317.4521000013, 2285583.5984999985 822305.4820999987, 2285598.4931000024 822379.1068999991, 2285676.465300001 822363.2050999999, 2285682.3429000005 822395.1897, 2285685.6684999987 822424.1787, 2285685.7853000015 822425.1964000016, 2285685.7861 822425.2034999989, 2285730.0496999994 822414.5397999994, 2285737.375500001 822412.9362000003, 2285752.116700001 822408.6160999984, 2285771.5500999987 822402.9208999984, 2285844.5200999975 822384.5843000002))</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1242,6 +1327,11 @@
       <c r="L18" t="n">
         <v>4.120006588192525</v>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>POLYGON ((2285673.0573000014 823544.1160000004, 2285677.1900999993 823530.1235999987, 2285682.6305000037 823516.2318000011, 2285686.3769000024 823511.5034000017, 2285687.518299997 823508.8377999999, 2285700.3584999964 823473.0117000006, 2285703.7365000024 823463.6165000014, 2285709.290100001 823448.1702999994, 2285710.3814999983 823447.2533, 2285721.220700003 823438.1455000006, 2285722.8143000007 823435.0117999986, 2285724.500500001 823431.6961000003, 2285724.4804000035 823430.7355000004, 2285724.463799998 823429.9415999986, 2285724.5091999993 823429.7993000001, 2285739.506099999 823382.9512999989, 2285748.8994999975 823355.5896999985, 2285757.0165000036 823350.5163000003, 2285760.5785000026 823345.9162999988, 2285770.8539000005 823302.2518000007, 2285779.458300002 823294.0452000014, 2285792.6240999997 823274.5447999984, 2285798.2047000006 823263.3511999995, 2285807.8562999964 823253.2021999992, 2285811.373499997 823249.5036000013, 2285821.8188999966 823234.2047999986, 2285829.847099997 823227.7362000011, 2285842.5441000015 823219.5949999988, 2285851.5851000026 823211.3590000011, 2285854.1823000014 823208.3735999987, 2285855.0144999996 823207.3702000007, 2285855.725900002 823204.9547999986, 2285858.468500003 823195.6396000013, 2285858.341300003 823195.1094999984, 2285857.0529000014 823189.7340000011, 2285856.8255999982 823184.6748000011, 2285856.0458000004 823182.9538000003, 2285854.8090000004 823172.1697999984, 2285852.214400001 823165.4210000001, 2285848.2481999993 823162.4605999999, 2285844.6928000003 823158.3341999985, 2285844.6432000026 823155.8224, 2285844.6120000035 823154.2831000015, 2285844.6581000015 823154.1864, 2285848.642499998 823145.8104000017, 2285860.3105000034 823127.1248999983, 2285860.1853 823126.3156999983, 2285857.5190000013 823109.0628999993, 2285857.6164000034 823108.4686999992, 2285860.762500003 823089.2501000017, 2285870.3532999977 823069.2364999987, 2285884.742899999 823053.9367000014, 2285908.760300003 823024.2305000015, 2285908.6361000016 823023.3647999987, 2285905.8255999982 823003.7595000006, 2285905.9174000025 822997.863499999, 2285905.9329999983 822996.8513000011, 2285906.2749999985 822974.7327999994, 2285906.287900001 822974.5579000004, 2285906.344899997 822973.7897999994, 2285908.621299997 822943.0359999985, 2285909.484700002 822931.3632000014, 2285914.0555000007 822895.1693999991, 2285913.9587000012 822895.0918999985, 2285909.4714 822891.4915000014, 2285863.473099999 822847.2003999986, 2285796.9954999983 822791.9671999998, 2285797.1482999995 822778.8903999999, 2285797.3181999996 822764.4411000013, 2285797.3011000007 822764.438099999, 2285797.2841000035 822764.4349999987, 2285776.0573000014 822760.5163999982, 2285776.0402999967 822760.5133000016, 2285769.1238999963 822763.8497000001, 2285762.1440000013 822767.2168999985, 2285749.599100001 822770.2769999988, 2285737.6203000024 822773.4715000018, 2285727.6591000035 822776.1281000003, 2285729.5209000036 822782.0142999999, 2285733.8462999985 822795.6895000003, 2285735.318099998 822800.3412999995, 2285739.8589999974 822814.6933000013, 2285740.7502999976 822817.5106999986, 2285741.2883 822819.2113000005, 2285745.0544999987 822837.8849, 2285748.840999998 822856.6583000012, 2285748.5232999995 822856.7093000002, 2285673.947499998 822868.5694999993, 2285670.3087000027 822869.1103999987, 2285668.1739000008 822869.6992999986, 2285663.8769999966 822870.8082999997, 2285664.090099998 822871.2943000011, 2285664.3663000017 822871.9241000004, 2285664.475900002 822872.2320999987, 2285664.6198000014 822872.6358999982, 2285700.1460999995 822934.997200001, 2285700.482900001 822935.5905999988, 2285701.215300001 822936.8806999996, 2285702.576899998 822943.7320999987, 2285703.9419 822950.6000000015, 2285704.070799999 822951.7028999999, 2285704.098099999 822951.9354999997, 2285710.886500001 822995.5786999986, 2285710.9711000025 822996.1103000008, 2285711.0408999994 822996.5469999984, 2285714.2863000035 823016.9017000012, 2285714.9891000018 823021.3095000014, 2285718.162100002 823041.2195000015, 2285719.452299997 823049.4142999984, 2285724.7773 823083.2203000002, 2285723.8017000034 823083.3403000012, 2285581.227499999 823109.8385000005, 2285549.236100003 823115.4809000008, 2285533.6196999997 823118.2351999991, 2285533.603699997 823118.2380000018, 2285533.6027000025 823118.2320000008, 2285529.4532999992 823092.2137000002, 2285526.2501000017 823072.1284000017, 2285526.2492000014 823072.1228, 2285526.233099997 823072.1251999997, 2285479.8088999987 823079.0417999998, 2285413.4943000004 823089.1647000015, 2285394.7334999964 823092.0287000015, 2285394.716499999 823092.0313000008, 2285394.716499999 823092.0254999995, 2285394.714400001 823091.6165000014, 2285394.6881000027 823086.4921000004, 2285394.345700003 823019.8233000003, 2285394.345700003 823019.8170000017, 2285394.3286999986 823019.8200999983, 2285348.5168000013 823028.064199999, 2285348.501199998 823028.0670000017, 2285348.4997999966 823028.0610000007, 2285332.095200002 822955.0240999982, 2285324.9089 822920.6633000001, 2285324.907899998 822920.6583000012, 2285316.503899999 822880.4774999991, 2285316.502700001 822880.4710000008, 2285316.4861999974 822880.4745000005, 2285226.2480999976 822900.1292999983, 2285226.139700003 822900.1528999992, 2285172.661899999 822912.5821000002, 2285169.769699998 822919.9376999997, 2285162.3391000032 822924.2859000005, 2285151.7695000023 822927.0976999998, 2285150.6701000035 822927.1376999989, 2285140.821999997 822927.4967, 2285140.817599997 822927.4965999983, 2285140.8051000014 822927.4932000004, 2285140.8008999974 822927.4924999997, 2285139.522500001 822927.1488999985, 2285139.5058000013 822927.1444000006, 2285139.4891000018 822927.1398999989, 2285134.2993 822925.7448999994, 2285134.282499999 822925.740699999, 2285110.9514999986 822933.2520999983, 2285065.5617000014 822947.8660999984, 2285059.922200002 822950.2448000014, 2285059.4306000024 822950.4521000013, 2285059.360799998 822950.4814999998, 2285059.3566000015 822950.4835000001, 2285059.3474999964 822950.4871000014, 2285073.5496999994 822971.4615999982, 2285086.7080999985 822998.0366000012, 2285097.8638999984 823048.8872000016, 2285107.2189000025 823077.1147999987, 2285134.523199998 823127.8993999995, 2285134.6767999977 823128.1849999987, 2285124.2038000003 823172.8082999997, 2285124.0698999986 823173.3790999986, 2285130.0653000027 823200.2109000012, 2285147.5200999975 823227.5997000001, 2285164.302500002 823255.0034999996, 2285185.357500002 823283.8652999997, 2285235.0627000034 823333.9549000002, 2285250.8663000017 823342.7470999993, 2285251.4848999977 823343.0910999998, 2285236.6379000023 823359.3914999999, 2285236.171099998 823359.9039999992, 2285239.9976999983 823364.5918000005, 2285247.0243000016 823375.5788000003, 2285255.3517000005 823393.5161999986, 2285257.1328999996 823408.6215999983, 2285257.149099998 823408.7586000003, 2285256.4060999975 823424.7344000004, 2285256.3649000004 823425.6242000014, 2285256.7905 823430.2666000016, 2285280.218500003 823439.1006000005, 2285284.361100003 823446.9906000011, 2285289.5112999976 823456.6389999986, 2285289.531300001 823456.6765000001, 2285289.5358999968 823456.6849999987, 2285289.548100002 823456.679299999, 2285289.5518999994 823456.6772999987, 2285289.6357999966 823456.6372000016, 2285296.7739000022 823453.2212000005, 2285297.668899998 823448.055399999, 2285301.3665999994 823443.3695, 2285301.3916999996 823443.3376999982, 2285301.3945000023 823443.3341999985, 2285301.396499999 823443.3315999992, 2285301.411600001 823443.3374000005, 2285301.4910999984 823443.367800001, 2285305.2124999985 823444.7903999984, 2285336.781499997 823453.6308000013, 2285340.1916000023 823458.2096999995, 2285340.1938999966 823458.2129000016, 2285340.208499998 823458.2129000016, 2285340.213799998 823458.2129000016, 2285347.4821000025 823458.2342000008, 2285347.491899997 823458.2340999991, 2285347.5024999976 823458.2340999991, 2285348.798100002 823458.8814000003, 2285356.9148999974 823462.9294999987, 2285357.108000003 823463.0258000009, 2285357.141599998 823463.0425999984, 2285357.1558 823463.0498000011, 2285357.1655 823463.0544999987, 2285357.1696999967 823463.0566000007, 2285357.174900003 823463.0592, 2285357.1894999966 823463.0562999994, 2285357.266099997 823463.0408000015, 2285364.255400002 823461.6295000017, 2285364.3222000003 823461.6160000004, 2285364.3307000026 823461.6143000014, 2285364.334899999 823461.6134000011, 2285364.342100002 823461.615699999, 2285364.3477 823461.6174999997, 2285364.379900001 823461.627700001, 2285404.3323 823474.2888000011, 2285404.8825000003 823476.934700001, 2285404.8994999975 823476.938000001, 2285424.190899998 823480.6975000016, 2285424.2079000026 823480.7008000016, 2285424.2249 823480.7039999999, 2285428.0829000026 823482.621199999, 2285428.0996999964 823482.6253999993, 2285437.5658000037 823485.0804000013, 2285437.5825000033 823485.0846000016, 2285437.599200003 823485.0885000005, 2285453.684299998 823495.7875999995, 2285478.3144999966 823514.8942000009, 2285482.331100002 823521.3839999996, 2285497.0688999966 823535.8720000014, 2285497.085900001 823535.8751000017, 2285515.114 823539.1429999992, 2285515.1309999973 823539.1460999995, 2285515.148000002 823539.1491999999, 2285515.164999999 823539.1523000002, 2285515.1909999996 823539.1570000015, 2285515.207800001 823539.1600000001, 2285515.2238000035 823539.1627999991, 2285515.2400999963 823539.1658999994, 2285515.2449999973 823539.1627999991, 2285515.272500001 823539.1473999992, 2285517.8033000007 823537.7261999995, 2285522.3901000023 823535.1537999995, 2285523.5797000006 823528.1557999998, 2285523.4886000007 823527.7943000011, 2285522.4998999983 823523.8594000004, 2285522.634800002 823523.2386000007, 2285525.5441000015 823509.8482000008, 2285538.3052999973 823504.9721999988, 2285543.6624 823503.8814999983, 2285543.7518000007 823503.8632999994, 2285543.7569999993 823503.8621999994, 2285543.7688999996 823503.8597999997, 2285543.7717999965 823503.8630000018, 2285543.7739999965 823503.8654000014, 2285543.786899999 823503.8797000013, 2285559.3704999983 823521.0412000008, 2285567.6569000036 823545.3548000008, 2285567.6652999967 823545.3792999983, 2285567.667300001 823545.3852000013, 2285567.681900002 823545.3812000006, 2285567.6855000034 823545.379999999, 2285567.7814000025 823545.3530000001, 2285586.283699997 823540.1341000013, 2285586.300499998 823540.1295999996, 2285586.3203999996 823540.1297999993, 2285586.3882 823540.1317999996, 2285586.408200003 823540.1323000006, 2285586.4280999973 823540.1327, 2285601.7380999997 823540.5518000014, 2285601.758100003 823540.5522999987, 2285601.777999997 823540.5526, 2285636.4257000014 823540.9138000011, 2285636.4345000014 823540.9138999991, 2285636.4456999972 823540.9138999991, 2285636.4514999986 823540.9171000011, 2285639.5874999985 823542.6297999993, 2285651.3792999983 823550.4252000004, 2285651.3962000012 823550.4285999984, 2285659.449699998 823552.1028000005, 2285659.466600001 823552.1063000001, 2285659.4834999964 823552.1097999997, 2285659.5003999993 823552.1134000011, 2285659.5254999995 823552.1187000014, 2285659.530299999 823552.1195, 2285659.5424000025 823552.1220999993, 2285659.5473000035 823552.1229000017, 2285659.5593999997 823552.1253999993, 2285659.5671000034 823552.1226000004, 2285659.608000003 823552.1079000011, 2285667.7651000023 823549.1702000014, 2285673.0573000014 823544.1160000004))</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1286,6 +1376,11 @@
       <c r="L19" t="n">
         <v>1.94701927587937</v>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>POLYGON ((2285335.601599999 822487.0850000009, 2285362.1423000023 822481.3407000005, 2285378.6802999973 822480.0965000018, 2285386.229000002 822478.9211999997, 2285443.376699999 822470.0395999998, 2285539.4329999983 822456.6640000008, 2285611.2498999983 822441.2426999994, 2285645.1708000004 822432.9175000004, 2285645.4415000007 822432.8662, 2285685.1335999966 822425.3275000006, 2285685.7861 822425.2034999989, 2285685.7853000015 822425.1964000016, 2285685.6684999987 822424.1787, 2285682.3429000005 822395.1897, 2285676.465300001 822363.2050999999, 2285598.4931000024 822379.1068999991, 2285583.5984999985 822305.4820999987, 2285513.7534999996 822317.4521000013, 2285490.992899999 822189.0852999985, 2285435.456699997 822193.5962999985, 2285417.3103 822183.3220999986, 2285392.482500002 822190.7263000011, 2285288.6525000036 822209.9510999992, 2285276.7123000026 822140.4891000018, 2285267.4975000024 822085.4483000003, 2285261.1662999988 822057.1856999993, 2285256.0210999995 822053.1185000017, 2285243.770300001 822021.7514999993, 2285234.4723000005 822009.0315000005, 2285232.3806999996 822002.6840999983, 2285230.6904999986 821997.5309000015, 2285225.920900002 821985.0111000016, 2285202.0561000034 821972.8891000003, 2285195.9316999987 821971.4114999995, 2285176.173299998 821978.8407000005, 2285164.280100003 821983.9860999994, 2285153.2124999985 821984.8841000013, 2285121.9789000005 821995.9836999997, 2285110.612300001 821998.5428999998, 2285104.020499997 822000.5678999983, 2285091.6340999976 821998.4798999988, 2285098.9910999984 822034.0399000011, 2285107.461099997 822048.2597000003, 2285038.2797000036 822091.4411000013, 2285006.910700001 822061.4419, 2284960.580499999 822025.7034999989, 2284954.0078999996 822014.8786999993, 2284939.4645000026 822016.3013000004, 2284922.063699998 822029.8227000013, 2284898.2430000007 822042.9593000002, 2284895.5165000036 822048.1845000014, 2284884.151299998 822288.498399999, 2284886.2476999983 822291.0714000016, 2284827.1978999972 822360.8509000018, 2284828.7980000004 822366.3000999987, 2284833.096000001 822393.4864000008, 2284835.091799997 822409.442499999, 2284836.947999999 822424.2861000001, 2284844.487999998 822424.5507000014, 2284846.9280999973 822424.055399999, 2284866.025200002 822420.1721000001, 2284891.0623999983 822402.7813000008, 2284952.2124999985 822402.7215000018, 2284978.3730000034 822402.5124000013, 2284978.389399998 822402.5122999996, 2284978.3900000006 822402.5155999996, 2285001.425300002 822536.5850000009, 2285062.189000003 822530.6970000006, 2285076.3401999995 822529.3079000004, 2285078.725299999 822528.9175000004, 2285081.959899999 822528.3883000016, 2285137.2876999974 822519.0603, 2285148.0495000035 822517.249499999, 2285243.5749000013 822501.7225000001, 2285327.166500002 822488.4266999997, 2285335.601599999 822487.0850000009))</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1330,6 +1425,11 @@
       <c r="L20" t="n">
         <v>1.852294397238218</v>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>POLYGON ((2285797.3181999996 822764.4411000013, 2285797.0385999978 822689.4378999993, 2285781.457199998 822642.9967, 2285768.9201999977 822601.6563999988, 2285756.201899998 822559.7148999982, 2285748.1118 822533.0359999985, 2285748.104800001 822533.0130999982, 2285748.103500001 822533.0086999983, 2285748.088200003 822533.0119999982, 2285748.0847000033 822533.0133999996, 2285747.987400003 822533.0377999991, 2285674.651299998 822551.3691999987, 2285673.3088999987 822551.7047999986, 2285673.208999999 822551.7296999991, 2285673.190399997 822551.7344000004, 2285673.1893000007 822551.7294000015, 2285673.184299998 822551.7065999992, 2285672.1894999966 822547.0929999985, 2285665.7326000035 822517.1460999995, 2285645.1708000004 822432.9175000004, 2285611.2498999983 822441.2426999994, 2285539.4329999983 822456.6640000008, 2285443.376699999 822470.0395999998, 2285386.229000002 822478.9211999997, 2285378.6802999973 822480.0965000018, 2285362.1423000023 822481.3407000005, 2285335.601599999 822487.0850000009, 2285354.527900003 822616.6088999994, 2285366.963100001 822692.5883000009, 2285383.280199997 822792.2859000005, 2285390.2717000023 822830.5324999988, 2285393.1699 822846.3870999999, 2285394.005900003 822888.5953000002, 2285394.8241000026 822929.9081000015, 2285395.2898999974 822953.4800999984, 2285395.7468999997 822976.6079000011, 2285394.345700003 823019.8170000017, 2285394.345700003 823019.8233000003, 2285394.6881000027 823086.4921000004, 2285394.714400001 823091.6165000014, 2285394.716499999 823092.0254999995, 2285394.716499999 823092.0313000008, 2285394.7334999964 823092.0287000015, 2285413.4943000004 823089.1647000015, 2285479.8088999987 823079.0417999998, 2285526.233099997 823072.1251999997, 2285526.2492000014 823072.1228, 2285526.2501000017 823072.1284000017, 2285529.4532999992 823092.2137000002, 2285533.6027000025 823118.2320000008, 2285533.603699997 823118.2380000018, 2285533.6196999997 823118.2351999991, 2285549.236100003 823115.4809000008, 2285581.227499999 823109.8385000005, 2285723.8017000034 823083.3403000012, 2285724.7773 823083.2203000002, 2285719.452299997 823049.4142999984, 2285718.162100002 823041.2195000015, 2285714.9891000018 823021.3095000014, 2285714.2863000035 823016.9017000012, 2285711.0408999994 822996.5469999984, 2285710.9711000025 822996.1103000008, 2285710.886500001 822995.5786999986, 2285704.098099999 822951.9354999997, 2285704.070799999 822951.7028999999, 2285703.9419 822950.6000000015, 2285702.576899998 822943.7320999987, 2285701.215300001 822936.8806999996, 2285700.482900001 822935.5905999988, 2285700.1460999995 822934.997200001, 2285664.6198000014 822872.6358999982, 2285664.475900002 822872.2320999987, 2285664.3663000017 822871.9241000004, 2285664.090099998 822871.2943000011, 2285663.8769999966 822870.8082999997, 2285668.1739000008 822869.6992999986, 2285670.3087000027 822869.1103999987, 2285673.947499998 822868.5694999993, 2285748.5232999995 822856.7093000002, 2285748.840999998 822856.6583000012, 2285745.0544999987 822837.8849, 2285741.2883 822819.2113000005, 2285740.7502999976 822817.5106999986, 2285739.8589999974 822814.6933000013, 2285735.318099998 822800.3412999995, 2285733.8462999985 822795.6895000003, 2285729.5209000036 822782.0142999999, 2285727.6591000035 822776.1281000003, 2285737.6203000024 822773.4715000018, 2285749.599100001 822770.2769999988, 2285762.1440000013 822767.2168999985, 2285769.1238999963 822763.8497000001, 2285776.0402999967 822760.5133000016, 2285776.0573000014 822760.5163999982, 2285797.2841000035 822764.4349999987, 2285797.3011000007 822764.438099999, 2285797.3181999996 822764.4411000013))</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1374,6 +1474,11 @@
       <c r="L21" t="n">
         <v>0.9032258064516128</v>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>POLYGON ((2285394.345700003 823019.8170000017, 2285395.7468999997 822976.6079000011, 2285395.2898999974 822953.4800999984, 2285394.8241000026 822929.9081000015, 2285394.005900003 822888.5953000002, 2285393.1699 822846.3870999999, 2285390.2717000023 822830.5324999988, 2285383.280199997 822792.2859000005, 2285366.963100001 822692.5883000009, 2285354.527900003 822616.6088999994, 2285335.601599999 822487.0850000009, 2285327.166500002 822488.4266999997, 2285243.5749000013 822501.7225000001, 2285148.0495000035 822517.249499999, 2285137.2876999974 822519.0603, 2285081.959899999 822528.3883000016, 2285078.725299999 822528.9175000004, 2285076.3401999995 822529.3079000004, 2285062.189000003 822530.6970000006, 2285001.425300002 822536.5850000009, 2284956.0151000023 822540.8649000004, 2284948.574699998 822541.4996000007, 2284941.8411 822542.0742999986, 2284932.942900002 822542.932500001, 2284930.276100002 822543.0676999986, 2284929.8191 822543.0909999982, 2284927.2939999998 822544.7998000011, 2284920.3457999974 822549.5001999997, 2284918.8993000016 822550.4789000005, 2284882.6413000003 822573.0201000012, 2284869.3540999964 822581.4796999991, 2284861.173799999 822586.688099999, 2284843.8495000005 822597.7186000012, 2284829.516900003 822606.8443000019, 2284792.150899999 822633.9268999994, 2284780.2924000025 822642.5219999999, 2284780.284000002 822642.5280999988, 2284780.3093999997 822642.5251999982, 2284793.335699998 822641.058600001, 2284793.3500000015 822641.057, 2284793.3527000025 822641.0617999993, 2284797.454499997 822648.4354999997, 2284834.4565000013 822714.9510999992, 2284822.0195000023 822717.8663000017, 2284797.8501999974 822723.5318999998, 2284778.151799999 822729.052099999, 2284780.7919000015 822732.6570999995, 2284803.9768999964 822768.0507000014, 2284824.2271 822798.9637000002, 2284825.920900002 822802.2604999989, 2284826.592600003 822803.568, 2284826.6248999983 822803.6308999993, 2284826.6281000003 822803.6370999999, 2284826.631099999 822803.6429000013, 2284840.8927000016 822808.9651000015, 2284874.309100002 822821.4354999997, 2284874.8527000025 822821.6383000016, 2284870.798299998 822827.681499999, 2284870.4855000004 822828.1475000009, 2284875.6516999975 822838.7250999995, 2284905.6679000035 822848.2476999983, 2284905.699699998 822848.2578999996, 2284939.4433000013 822855.7342999987, 2284939.4601000026 822855.7379000001, 2284973.807099998 822867.0225000009, 2284979.855899997 822873.4965000004, 2284994.253899999 822888.9006999992, 2285006.7377000004 822908.2379000001, 2285043.9250999987 822938.1020999998, 2285049.828900002 822942.8431000002, 2285059.3061000034 822950.4539999999, 2285059.3398 822950.4809000008, 2285059.3474999964 822950.4871000014, 2285059.3566000015 822950.4835000001, 2285059.360799998 822950.4814999998, 2285059.4306000024 822950.4521000013, 2285059.922200002 822950.2448000014, 2285065.5617000014 822947.8660999984, 2285110.9514999986 822933.2520999983, 2285134.282499999 822925.740699999, 2285134.2993 822925.7448999994, 2285139.4891000018 822927.1398999989, 2285139.5058000013 822927.1444000006, 2285139.522500001 822927.1488999985, 2285140.8008999974 822927.4924999997, 2285140.8051000014 822927.4932000004, 2285140.817599997 822927.4965999983, 2285140.821999997 822927.4967, 2285150.6701000035 822927.1376999989, 2285151.7695000023 822927.0976999998, 2285162.3391000032 822924.2859000005, 2285169.769699998 822919.9376999997, 2285172.661899999 822912.5821000002, 2285226.139700003 822900.1528999992, 2285226.2480999976 822900.1292999983, 2285316.4861999974 822880.4745000005, 2285316.502700001 822880.4710000008, 2285316.503899999 822880.4774999991, 2285324.907899998 822920.6583000012, 2285324.9089 822920.6633000001, 2285332.095200002 822955.0240999982, 2285348.4997999966 823028.0610000007, 2285348.501199998 823028.0670000017, 2285348.5168000013 823028.064199999, 2285394.3286999986 823019.8200999983, 2285394.345700003 823019.8170000017))</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1418,6 +1523,11 @@
       <c r="L22" t="n">
         <v>5.106837606837606</v>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>POLYGON ((2304678.340499997 771003.0929000005, 2304637.694799997 770801.8957999982, 2304603.7216000035 770622.4561999999, 2304603.688500002 770622.2815000005, 2304494.454099998 770639.7498000003, 2304363.3880999982 770663.0689999983, 2304249.204099998 770678.4871000014, 2304181.467500001 770689.1695000008, 2304166.3652999997 770691.5493000001, 2304149.9196999967 770693.9351999983, 2304040.5599000007 770709.8005000018, 2303979.352300003 770718.680300001, 2303959.2304999977 770721.9274999984, 2303959.2277000025 770721.9279999994, 2303893.333999999 770732.5604999997, 2303863.378700003 770737.3940000013, 2303736.014399998 770757.5894000009, 2303735.9946999997 770757.5925000012, 2303632.2035000026 770774.0507000014, 2303592.543899998 770779.5188999996, 2303555.7036999986 770785.7325000018, 2303511.733900003 770793.2430999987, 2303465.7124999985 770801.1041000001, 2303429.0716999993 770807.3629000001, 2303388.5631000027 770814.2820999995, 2303348.5566999987 770821.1173, 2303304.610100001 770828.6237000003, 2303262.739500001 770826.9422999993, 2303308.094499998 770920.0348999985, 2303356.7339999974 771027.2542999983, 2303397.516900003 771135.7569999993, 2303431.454499997 771217.9976000004, 2303436.766099997 771222.7804999985, 2303484.2007 771338.4131999984, 2303500.054200001 771381.5306000002, 2303509.7327999994 771405.8900999986, 2303529.449699998 771469.1464000009, 2303547.775899999 771516.6849000007, 2303567.5405 771565.7985000014, 2303575.0182000026 771582.6838000007, 2303581.107900001 771607.9869999997, 2303590.217600003 771653.4763000011, 2303592.345700003 771659.1765000001, 2303609.7140000015 771727.2021999992, 2303623.465400003 771805.2351999991, 2303639.413900003 771878.0555999987, 2303652.4553999975 771955.9083999991, 2303652.4411000013 771977.6438999996, 2303723.159599997 772270.7399000004, 2303724.484099999 772276.2292000018, 2303739.525799997 772268.8770000003, 2303848.1810000017 772235.2718999982, 2304062.7224999964 772170.3533999994, 2304100.199699998 772161.1752999984, 2304177.3891000003 772141.7969999984, 2304287.697999999 772114.2912000008, 2304441.5978000015 772077.0329000019, 2304493.7885999978 772056.2424000017, 2304511.367700003 772044.0951999985, 2304533.537900001 772019.9695000015, 2304544.0461999997 772001.9545000009, 2304583.649599999 771935.1405999996, 2304637.7228000015 771847.5284999982, 2304682.2742 771776.9252999984, 2304701.6331999972 771747.8693999983, 2304738.4175999984 771694.7489, 2304783.6094999984 771620.2591000013, 2304783.667800002 771620.1631000005, 2304777.125500001 771609.125599999, 2304777.9789000005 771590.3599000014, 2304777.9844999984 771590.2366000004, 2304777.976300001 771590.1612000018, 2304775.1286000013 771564.0108000003, 2304762.3988000005 771488.2923000008, 2304723.0046999976 771264.8319000006, 2304678.340499997 771003.0929000005))</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1462,6 +1572,11 @@
       <c r="L23" t="n">
         <v>3.577913695983445</v>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>POLYGON ((2302278.3527000025 769124.6754000001, 2302335.4067 769111.2338999994, 2302449.258299999 769070.7934000008, 2302412.0605000034 769023.8436999992, 2302214.1772999987 768774.0830999985, 2302146.727300003 768688.9490999989, 2302102.647500001 768642.441300001, 2302098.2765000015 768637.8295000009, 2302085.6306999996 768624.5357000008, 2302054.866700001 768586.5843999982, 2302016.877899997 768550.6105000004, 2301927.848099999 768456.8412999995, 2301899.8103 768430.5337000005, 2301888.167300001 768419.6092999987, 2301883.285700001 768414.6627000012, 2301846.6728999987 768377.5625, 2301756.416699998 768286.5835000016, 2301716.070100002 768245.9140999988, 2301649.4448999986 768179.1821000017, 2301644.2832999974 768174.0122999996, 2301537.341300003 768065.8513000011, 2301508.1955000013 768036.9171000011, 2301476.9980999976 768005.9463, 2301445.6413000003 767973.876699999, 2301421.318099998 767946.621100001, 2301415.9113000035 767940.0777000003, 2301397.9646999985 767918.3583000004, 2301367.5521000028 767878.4175000004, 2301367.531300001 767878.4301000014, 2301301.671099998 767918.0069000013, 2301300.3088999987 767961.3854999989, 2301300.3040999994 767961.5362999998, 2301300.311499998 767961.5841000006, 2301307.7080999985 768009.7366999984, 2301307.7365000024 768009.9224999994, 2301307.710699998 768009.9354999997, 2301179.7809000015 768073.6101000011, 2301164.1369000003 768142.1422999986, 2301153.2512999997 768146.8376999982, 2301140.8598999977 768163.7736999989, 2301140.8298999965 768163.7751000002, 2301132.481700003 768164.1438999996, 2301105.278099999 768169.8354999982, 2301016.5683000013 768190.3698999994, 2300908.3935000002 768216.4191000015, 2300908.3323 768216.433699999, 2300908.3960999995 768216.6176999994, 2300918.3510999978 768245.3189000003, 2300932.9701000005 768287.4655000009, 2300946.838100001 768327.4503000006, 2300962.701700002 768372.0731000006, 2300966.1525000036 768382.3658999987, 2300977.594700001 768416.5108999982, 2300986.3228999972 768447.5947000012, 2300990.2435000017 768461.5494999997, 2300998.3150999993 768505.5773000009, 2301006.534900002 768550.5485000014, 2301014.3264999986 768594.7861000001, 2301021.581299998 768638.4134999998, 2301027.343500003 768673.0687000006, 2301027.3737000003 768673.0626999997, 2301094.835500002 768659.4028999992, 2301210.219300002 768638.7336999997, 2301323.438699998 768619.6568999998, 2301377.7097000033 768610.9835000001, 2301381.096900001 768615.5183000006, 2301384.4375 768630.6585000008, 2301394.1787 768652.2685000002, 2301395.767499998 768658.9213000014, 2301397.3521 768665.5716999993, 2301411.8198999986 768701.7148999982, 2301413.8260999992 768705.6482999995, 2301417.1811000034 768712.2325000018, 2301438.9214999974 768744.6217, 2301442.4932999983 768751.0439000018, 2301445.0974999964 768756.5687000006, 2301461.622299999 768796.136500001, 2301463.9377000034 768800.1706999987, 2301467.867899999 768805.8040999994, 2301467.8883000016 768805.9268999994, 2301477.9553000033 768839.2512999997, 2301479.3065000027 768847.3478999995, 2301494.5939000025 768858.0340999998, 2301555.842100002 768874.2030999996, 2301555.8641000018 768874.1942999996, 2301611.2190999985 768851.8273000009, 2301689.0041999966 768804.7115000002, 2301694.399899997 768803.4662999995, 2301823.472900003 768949.2840999998, 2301882.9360999987 769015.068500001, 2301944.5929000005 769083.8240999989, 2302008.246299997 769154.8112999983, 2302029.293700002 769178.0480999984, 2302104.982500002 769162.5848999992, 2302139.6295000017 769155.3614999987, 2302278.3527000025 769124.6754000001))</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1506,6 +1621,11 @@
       <c r="L24" t="n">
         <v>2.402849031215974</v>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>POLYGON ((2301407.7453000024 772233.7939999998, 2301457.846699998 772159.2355000004, 2301508.1225000024 772084.4761000015, 2301588.019699998 771964.8550999984, 2301668.1686000004 771846.9354999997, 2301703.5687000006 771795.5742999986, 2301733.089900002 771752.7434, 2301578.488499999 771665.7597000003, 2301543.376500003 771646.6347000003, 2301529.776900001 771639.2325000018, 2301502.528499998 771623.1695000008, 2301446.0819000006 771593.4574999996, 2301378.455499999 771550.4842999987, 2301334.7014999986 771523.0120999999, 2301283.289300002 771496.6075000018, 2301277.9306999967 771591.1407000013, 2301268.348200001 771585.817499999, 2301262.9525000006 771585.8599000014, 2301273.6018999964 771613.1088999994, 2301282.7032999992 771637.1061000004, 2301282.778300002 771637.3037, 2301294.5024000034 771682.6853, 2301294.544500001 771682.8484999985, 2301294.5050000027 771682.8839999996, 2301291.5402999967 771685.5511000007, 2301268.6347000003 771714.1251000017, 2301243.8323 771751.9719000012, 2301212.643100001 771795.1053000018, 2301173.380900003 771849.626699999, 2301155.5075000003 771875.8469000012, 2301132.9334999993 771909.9886999987, 2301096.9091000035 771960.5366000012, 2301073.4466999993 772003.5582000017, 2301052.2075000033 772033.6290000007, 2301026.2985000014 772073.9004999995, 2301017.3271000013 772088.2208000012, 2300991.7553000003 772125.2452999987, 2300987.1740999967 772131.877700001, 2300955.8650999963 772177.2076999992, 2300925.510300003 772221.1587999985, 2300895.8281000033 772264.1325000003, 2300858.5163000003 772318.1537000015, 2300825.8850999996 772365.3999000005, 2300726.895800002 772508.7215000018, 2300726.8062999994 772508.8511000015, 2300726.898500003 772508.9200999998, 2300787.9191000015 772554.6341000013, 2300787.9768999964 772554.6774999984, 2300787.9217000008 772554.8326999992, 2300768.826899998 772608.5471000001, 2300768.0207 772614.3240999989, 2300718.052199997 772972.3612999991, 2300718.024899997 772972.5566000007, 2300718.054700002 772972.5599000007, 2300895.223700002 772992.7767000012, 2300895.3280000016 772992.6195, 2300952.112499997 772907.0692999996, 2300996.5385000035 772841.9309, 2301024.8916999996 772800.813099999, 2301053.6018999964 772759.1759000011, 2301074.8320999965 772735.1204999983, 2301101.2927 772694.4684999995, 2301285.9478999972 772416.5837000012, 2301332.6833000034 772346.1394999996, 2301349.639700003 772320.2309000008, 2301407.7453000024 772233.7939999998))</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1550,6 +1670,11 @@
       <c r="L25" t="n">
         <v>2.309607890642466</v>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>POLYGON ((2302249.3368000016 769950.3368999995, 2302358.5441000015 769921.1325000003, 2302354.283 769732.6053000018, 2302352.0659999996 769673.997299999, 2302347.7842999995 769611.1363000013, 2302342.4680999964 769514.1964999996, 2302342.285599999 769493.863499999, 2302341.9421000034 769455.8026, 2302354.4218999967 769408.3066000007, 2302344.6086999997 769359.0042999983, 2302330.343699999 769294.4107000008, 2302324.8528999984 769281.3354000002, 2302315.8376 769264.6735999994, 2302303.898000002 769227.2727999985, 2302291.1787 769181.7208999991, 2302281.2466999963 769146.1493000016, 2302278.3527000025 769124.6754000001, 2302139.6295000017 769155.3614999987, 2302104.982500002 769162.5848999992, 2302029.293700002 769178.0480999984, 2302008.246299997 769154.8112999983, 2301944.5929000005 769083.8240999989, 2301882.9360999987 769015.068500001, 2301823.472900003 768949.2840999998, 2301694.399899997 768803.4662999995, 2301689.0041999966 768804.7115000002, 2301703.6941 769022.0232999995, 2301704.853100002 769039.1693000011, 2301707.481700003 769071.9019000009, 2301740.6647000015 769185.9668999985, 2301780.666699998 769287.2410000004, 2301818.030500002 769286.3233999982, 2301871.452399999 769298.9549999982, 2301872.476800002 769424.3200999983, 2301873.3669999987 769459.3407999985, 2301878.3866000026 769596.8249999993, 2301879.7524000034 769663.0676000006, 2301881.217600003 769710.9659999982, 2301883.8127999976 769756.0571999997, 2301884.635499999 769798.4149000011, 2301886.011 769869.0775000006, 2301885.5736000016 769912.8202, 2301886.089900002 769975.1416000016, 2301886.0845 770037.9138999991, 2301966.784599997 770018.9690000005, 2302049.7629999965 769999.1596999988, 2302131.3049999997 769979.6944000013, 2302249.3368000016 769950.3368999995))</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1593,6 +1718,11 @@
       </c>
       <c r="L26" t="n">
         <v>2.290026358148137</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>POLYGON ((2301600.484700002 773399.0353999995, 2301629.5276999995 773398.8495000005, 2301737.4217000008 773395.3913999982, 2301953.0446000025 773389.9490999989, 2302032.5812000036 773388.2833000012, 2302084.0807000026 773382.0203000009, 2302125.522 773370.6752999984, 2302165.0298999995 773354.7624000013, 2302192.1899999976 773340.128899999, 2302279.1982000023 773279.6446000002, 2302355.3320000023 773227.9935000017, 2302374.543300003 773214.6171999983, 2302375.2874 773208.064199999, 2302383.2365000024 773138.0595999993, 2302384.5808999985 773121.3266999982, 2302383.164800003 773105.1028000005, 2302357.6731999964 773043.3000000007, 2302285.9272999987 772865.7155999988, 2302238.9175999984 772743.6649000011, 2302175.408500001 772584.9475000016, 2302113.9573 772432.4056999981, 2302093.0779 772380.5645000003, 2302073.3918000013 772331.3924999982, 2302045.446800001 772354.1044999994, 2302037.4868 772363.7441000007, 2301939.5911 772448.1323000006, 2301871.6147999987 772506.8612999991, 2301838.8260999992 772534.75, 2301737.269699998 772611.3775999993, 2301604.5429000035 772718.8513999991, 2301545.990500003 772766.2637000009, 2301470.854199998 772829.5905000009, 2301444.952299997 772853.5931999981, 2301400.6243999973 772887.0047999993, 2301353.327399999 772928.2897999994, 2301310.6797999963 772969.6163000017, 2301257.147399999 773021.2333999984, 2301212.0779 773069.5062000006, 2301180.520499997 773103.3099000007, 2301176.3992 773107.7245000005, 2301178.8725999966 773108.6202999987, 2301184.721199997 773110.2650999986, 2301186.2941000015 773110.7074000016, 2301198.7709000036 773117.2965000011, 2301216.0900000036 773127.3973000012, 2301243.3172999993 773146.3060999997, 2301252.8285000026 773155.3181000017, 2301288.4360999987 773188.4184000008, 2301368.6043 773266.8165000007, 2301420.225900002 773317.185800001, 2301461.1216999963 773357.3674000017, 2301475.2907000035 773371.0852000006, 2301487.2070000023 773380.6614000015, 2301503.132299997 773391.1779000014, 2301529.1652000025 773398.4616999999, 2301559.1934999973 773399.3781999983, 2301600.154799998 773399.0375000015, 2301600.484700002 773399.0353999995))</t>
+        </is>
       </c>
     </row>
   </sheetData>
